--- a/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.66328655889572</v>
+        <v>2.66328655889555</v>
       </c>
       <c r="C2">
-        <v>0.5377045118657406</v>
+        <v>0.5377045118661101</v>
       </c>
       <c r="D2">
-        <v>0.2051956502297685</v>
+        <v>0.2051956502295837</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.539037357930994</v>
+        <v>6.539037357930965</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1155365142605014</v>
+        <v>0.1155365142605334</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1223753922561706</v>
+        <v>0.1223753922561457</v>
       </c>
       <c r="L2">
-        <v>0.6366510847373306</v>
+        <v>0.6366510847373235</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.279600184409276</v>
+        <v>2.279600184409105</v>
       </c>
       <c r="C3">
-        <v>0.459574605981885</v>
+        <v>0.4595746059816008</v>
       </c>
       <c r="D3">
-        <v>0.1800663083103018</v>
+        <v>0.1800663083102734</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.74094551738807</v>
+        <v>5.740945517388155</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1039368014497875</v>
+        <v>0.1039368014498123</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.10619378037293</v>
+        <v>0.1061937803729265</v>
       </c>
       <c r="L3">
-        <v>0.5468375671407415</v>
+        <v>0.5468375671407628</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.050531741202917</v>
+        <v>2.050531741202974</v>
       </c>
       <c r="C4">
-        <v>0.4129118355317587</v>
+        <v>0.4129118355314461</v>
       </c>
       <c r="D4">
-        <v>0.1650432028020106</v>
+        <v>0.165043202802039</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.264012173359703</v>
+        <v>5.264012173359674</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.09701388544491962</v>
+        <v>0.09701388544486278</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.09654978923498447</v>
+        <v>0.09654978923500579</v>
       </c>
       <c r="L4">
         <v>0.493248369780666</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.958577624953648</v>
+        <v>1.958577624953705</v>
       </c>
       <c r="C5">
-        <v>0.394168592128608</v>
+        <v>0.394168592128409</v>
       </c>
       <c r="D5">
-        <v>0.1590062708932294</v>
+        <v>0.1590062708928031</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.09423543551261204</v>
+        <v>0.09423543551260494</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0926831979544005</v>
+        <v>0.09268319795443603</v>
       </c>
       <c r="L5">
-        <v>0.4717453638408671</v>
+        <v>0.4717453638408458</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>1.943386219014428</v>
       </c>
       <c r="C6">
-        <v>0.3910711961131028</v>
+        <v>0.3910711961128186</v>
       </c>
       <c r="D6">
-        <v>0.1580085196260228</v>
+        <v>0.158008519626236</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.040804423956928</v>
+        <v>5.040804423956843</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.093776452741551</v>
+        <v>0.09377645274152968</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.09204471464184394</v>
+        <v>0.09204471464180486</v>
       </c>
       <c r="L6">
         <v>0.4681935140039002</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.04928627872124</v>
+        <v>2.04928627872107</v>
       </c>
       <c r="C7">
-        <v>0.4126580257131707</v>
+        <v>0.4126580257128865</v>
       </c>
       <c r="D7">
-        <v>0.1649614632315348</v>
+        <v>0.164961463231819</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.26141806960473</v>
+        <v>5.261418069604758</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.09697625066003823</v>
+        <v>0.09697625066000271</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.09649739856465445</v>
+        <v>0.09649739856467221</v>
       </c>
       <c r="L7">
-        <v>0.4929570860519448</v>
+        <v>0.4929570860519235</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.529481637812808</v>
+        <v>2.529481637812751</v>
       </c>
       <c r="C8">
-        <v>0.5104569234091514</v>
+        <v>0.5104569234088956</v>
       </c>
       <c r="D8">
-        <v>0.1964357754801114</v>
+        <v>0.1964357754800545</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.26082024444591</v>
+        <v>6.260820244445938</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1114908088809798</v>
+        <v>0.1114908088810047</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1167291213576647</v>
+        <v>0.1167291213576362</v>
       </c>
       <c r="L8">
-        <v>0.6053241791574351</v>
+        <v>0.6053241791574635</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.535756231144092</v>
+        <v>3.535756231144376</v>
       </c>
       <c r="C9">
-        <v>0.7156482123677392</v>
+        <v>0.7156482123681656</v>
       </c>
       <c r="D9">
-        <v>0.262274557551109</v>
+        <v>0.2622745575513648</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.350433317552302</v>
+        <v>8.350433317552216</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1419230428235281</v>
+        <v>0.1419230428235458</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1592343184392639</v>
+        <v>0.1592343184393314</v>
       </c>
       <c r="L9">
-        <v>0.8409853349880052</v>
+        <v>0.8409853349880478</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.336002843225572</v>
+        <v>4.336002843225344</v>
       </c>
       <c r="C10">
-        <v>0.8796616957017704</v>
+        <v>0.8796616957022252</v>
       </c>
       <c r="D10">
-        <v>0.3146384627717396</v>
+        <v>0.3146384627719954</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1661225858542466</v>
+        <v>0.1661225858541684</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1930446522564893</v>
+        <v>0.1930446522564964</v>
       </c>
       <c r="L10">
-        <v>1.02838148980009</v>
+        <v>1.028381489800104</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.719410871433922</v>
+        <v>4.719410871433865</v>
       </c>
       <c r="C11">
-        <v>0.9586184449783559</v>
+        <v>0.9586184449774748</v>
       </c>
       <c r="D11">
-        <v>0.3397453970176372</v>
+        <v>0.3397453970169693</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.80010349373515</v>
+        <v>10.80010349373509</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.177711155530865</v>
+        <v>0.1777111555309077</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2092267787584348</v>
+        <v>0.2092267787584206</v>
       </c>
       <c r="L11">
-        <v>1.118121203592821</v>
+        <v>1.118121203592771</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.868030336936783</v>
+        <v>4.868030336937125</v>
       </c>
       <c r="C12">
-        <v>0.9892987148754457</v>
+        <v>0.9892987148753889</v>
       </c>
       <c r="D12">
-        <v>0.3494817354233533</v>
+        <v>0.3494817354239359</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.10700063744434</v>
+        <v>11.10700063744451</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2154949299572237</v>
+        <v>0.2154949299571882</v>
       </c>
       <c r="L12">
         <v>1.152895911393166</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.835858063434216</v>
+        <v>4.835858063434046</v>
       </c>
       <c r="C13">
-        <v>0.982653560084799</v>
+        <v>0.9826535600852253</v>
       </c>
       <c r="D13">
-        <v>0.3473738592593918</v>
+        <v>0.3473738592594913</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.04057894745398</v>
+        <v>11.0405789474537</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1812296803014739</v>
+        <v>0.1812296803015201</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2141382743524716</v>
+        <v>0.2141382743525071</v>
       </c>
       <c r="L13">
-        <v>1.145368651254323</v>
+        <v>1.145368651254316</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.731564916192895</v>
+        <v>4.731564916192781</v>
       </c>
       <c r="C14">
-        <v>0.9611258542095982</v>
+        <v>0.9611258542099677</v>
       </c>
       <c r="D14">
-        <v>0.3405415388992452</v>
+        <v>0.3405415388994584</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1780784242188496</v>
+        <v>0.1780784242188389</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2097394886164494</v>
+        <v>0.2097394886164849</v>
       </c>
       <c r="L14">
-        <v>1.120965312083001</v>
+        <v>1.120965312083008</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.668150741022259</v>
+        <v>4.668150741022089</v>
       </c>
       <c r="C15">
         <v>0.9480464654841967</v>
       </c>
       <c r="D15">
-        <v>0.3363878165004053</v>
+        <v>0.3363878165006895</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1761621207142312</v>
+        <v>0.176162120714153</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2070642130647329</v>
+        <v>0.2070642130647116</v>
       </c>
       <c r="L15">
         <v>1.106125607061692</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.311388146312936</v>
+        <v>4.311388146312822</v>
       </c>
       <c r="C16">
-        <v>0.8746017117775011</v>
+        <v>0.874601711777018</v>
       </c>
       <c r="D16">
-        <v>0.3130270983469501</v>
+        <v>0.3130270983471206</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.956734739823162</v>
+        <v>9.956734739823247</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1653784368455824</v>
+        <v>0.1653784368456144</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0.1920052709047297</v>
       </c>
       <c r="L16">
-        <v>1.022619000205957</v>
+        <v>1.02261900020595</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,16 +985,16 @@
         <v>4.097905448636595</v>
       </c>
       <c r="C17">
-        <v>0.8307595639994645</v>
+        <v>0.8307595639989813</v>
       </c>
       <c r="D17">
-        <v>0.2990539991515959</v>
+        <v>0.2990539991515107</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.515016273947708</v>
+        <v>9.515016273947936</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1589237670263017</v>
+        <v>0.1589237670262484</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1829887076885406</v>
+        <v>0.1829887076885761</v>
       </c>
       <c r="L17">
-        <v>0.9726358182493939</v>
+        <v>0.9726358182494295</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.976893553943</v>
+        <v>3.97689355394283</v>
       </c>
       <c r="C18">
-        <v>0.8059407004133448</v>
+        <v>0.8059407004134016</v>
       </c>
       <c r="D18">
-        <v>0.2911350191636899</v>
+        <v>0.2911350191637325</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.264494304292668</v>
+        <v>9.264494304292555</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1552644902021143</v>
+        <v>0.1552644902021427</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1778763105562717</v>
+        <v>0.1778763105563321</v>
       </c>
       <c r="L18">
-        <v>0.9442993237659607</v>
+        <v>0.9442993237659323</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.936208810922835</v>
+        <v>3.936208810922778</v>
       </c>
       <c r="C19">
-        <v>0.7976015987706546</v>
+        <v>0.7976015987692335</v>
       </c>
       <c r="D19">
-        <v>0.2884728570924437</v>
+        <v>0.2884728570923158</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.180245984651833</v>
+        <v>9.180245984652117</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1761573138910961</v>
+        <v>0.1761573138910322</v>
       </c>
       <c r="L19">
-        <v>0.9347719466247355</v>
+        <v>0.9347719466247639</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.12044281455843</v>
+        <v>4.120442814558373</v>
       </c>
       <c r="C20">
-        <v>0.8353844237409476</v>
+        <v>0.8353844237404928</v>
       </c>
       <c r="D20">
-        <v>0.3005289598941658</v>
+        <v>0.3005289598946064</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.561662966694144</v>
+        <v>9.561662966694115</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1596052395902952</v>
+        <v>0.1596052395902987</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.1839407439283569</v>
+        <v>0.1839407439283285</v>
       </c>
       <c r="L20">
-        <v>0.9779129567196989</v>
+        <v>0.9779129567196705</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,16 +1137,16 @@
         <v>4.762099372136106</v>
       </c>
       <c r="C21">
-        <v>0.967426443953741</v>
+        <v>0.9674264439537978</v>
       </c>
       <c r="D21">
-        <v>0.3425417480185757</v>
+        <v>0.342541748018661</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.88827103596526</v>
+        <v>10.88827103596503</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1790010818794165</v>
+        <v>0.1790010818794414</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.211027484237384</v>
+        <v>0.2110274842373485</v>
       </c>
       <c r="L21">
-        <v>1.128110341058758</v>
+        <v>1.128110341058701</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.201868383792373</v>
+        <v>5.20186838379243</v>
       </c>
       <c r="C22">
-        <v>1.058376485676462</v>
+        <v>1.058376485676121</v>
       </c>
       <c r="D22">
-        <v>0.3713614167202053</v>
+        <v>0.3713614167199779</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.79577735617124</v>
+        <v>11.79577735617136</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.192284804259554</v>
+        <v>0.1922848042594936</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2295639054580292</v>
+        <v>0.2295639054580221</v>
       </c>
       <c r="L22">
-        <v>1.230983158412336</v>
+        <v>1.230983158412357</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.965035604417551</v>
+        <v>4.965035604417267</v>
       </c>
       <c r="C23">
-        <v>1.009347560423635</v>
+        <v>1.009347560422754</v>
       </c>
       <c r="D23">
-        <v>0.3558380858364671</v>
+        <v>0.3558380858362966</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.30722814198288</v>
+        <v>11.3072281419827</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1851321585355414</v>
+        <v>0.1851321585355024</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.219584661918212</v>
+        <v>0.2195846619182475</v>
       </c>
       <c r="L23">
-        <v>1.175590001717765</v>
+        <v>1.175590001717737</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.110248354128885</v>
+        <v>4.110248354129055</v>
       </c>
       <c r="C24">
-        <v>0.8332923318671419</v>
+        <v>0.8332923318676251</v>
       </c>
       <c r="D24">
-        <v>0.2998617771839207</v>
+        <v>0.2998617771841481</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.540563411549016</v>
+        <v>9.540563411548987</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1592969864892417</v>
+        <v>0.1592969864892595</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.1835101079412738</v>
+        <v>0.1835101079412986</v>
       </c>
       <c r="L24">
-        <v>0.9755259286713951</v>
+        <v>0.975525928671388</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.25461472760071</v>
+        <v>3.254614727600881</v>
       </c>
       <c r="C25">
-        <v>0.6582334859598404</v>
+        <v>0.6582334859607215</v>
       </c>
       <c r="D25">
-        <v>0.2438846202672948</v>
+        <v>0.2438846202674654</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.767248872413035</v>
+        <v>7.76724887241312</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1334197285558361</v>
+        <v>0.1334197285558467</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1473526111178103</v>
+        <v>0.1473526111178138</v>
       </c>
       <c r="L25">
         <v>0.7751359171923795</v>

--- a/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.66328655889555</v>
+        <v>2.66328655889572</v>
       </c>
       <c r="C2">
-        <v>0.5377045118661101</v>
+        <v>0.5377045118657406</v>
       </c>
       <c r="D2">
-        <v>0.2051956502295837</v>
+        <v>0.2051956502297685</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.539037357930965</v>
+        <v>6.539037357930994</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1155365142605334</v>
+        <v>0.1155365142605014</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1223753922561457</v>
+        <v>0.1223753922561706</v>
       </c>
       <c r="L2">
-        <v>0.6366510847373235</v>
+        <v>0.6366510847373306</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.279600184409105</v>
+        <v>2.279600184409276</v>
       </c>
       <c r="C3">
-        <v>0.4595746059816008</v>
+        <v>0.459574605981885</v>
       </c>
       <c r="D3">
-        <v>0.1800663083102734</v>
+        <v>0.1800663083103018</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.740945517388155</v>
+        <v>5.74094551738807</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1039368014498123</v>
+        <v>0.1039368014497875</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1061937803729265</v>
+        <v>0.10619378037293</v>
       </c>
       <c r="L3">
-        <v>0.5468375671407628</v>
+        <v>0.5468375671407415</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.050531741202974</v>
+        <v>2.050531741202917</v>
       </c>
       <c r="C4">
-        <v>0.4129118355314461</v>
+        <v>0.4129118355317587</v>
       </c>
       <c r="D4">
-        <v>0.165043202802039</v>
+        <v>0.1650432028020106</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.264012173359674</v>
+        <v>5.264012173359703</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.09701388544486278</v>
+        <v>0.09701388544491962</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.09654978923500579</v>
+        <v>0.09654978923498447</v>
       </c>
       <c r="L4">
         <v>0.493248369780666</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.958577624953705</v>
+        <v>1.958577624953648</v>
       </c>
       <c r="C5">
-        <v>0.394168592128409</v>
+        <v>0.394168592128608</v>
       </c>
       <c r="D5">
-        <v>0.1590062708928031</v>
+        <v>0.1590062708932294</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.09423543551260494</v>
+        <v>0.09423543551261204</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.09268319795443603</v>
+        <v>0.0926831979544005</v>
       </c>
       <c r="L5">
-        <v>0.4717453638408458</v>
+        <v>0.4717453638408671</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>1.943386219014428</v>
       </c>
       <c r="C6">
-        <v>0.3910711961128186</v>
+        <v>0.3910711961131028</v>
       </c>
       <c r="D6">
-        <v>0.158008519626236</v>
+        <v>0.1580085196260228</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.040804423956843</v>
+        <v>5.040804423956928</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.09377645274152968</v>
+        <v>0.093776452741551</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.09204471464180486</v>
+        <v>0.09204471464184394</v>
       </c>
       <c r="L6">
         <v>0.4681935140039002</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.04928627872107</v>
+        <v>2.04928627872124</v>
       </c>
       <c r="C7">
-        <v>0.4126580257128865</v>
+        <v>0.4126580257131707</v>
       </c>
       <c r="D7">
-        <v>0.164961463231819</v>
+        <v>0.1649614632315348</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.261418069604758</v>
+        <v>5.26141806960473</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.09697625066000271</v>
+        <v>0.09697625066003823</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.09649739856467221</v>
+        <v>0.09649739856465445</v>
       </c>
       <c r="L7">
-        <v>0.4929570860519235</v>
+        <v>0.4929570860519448</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.529481637812751</v>
+        <v>2.529481637812808</v>
       </c>
       <c r="C8">
-        <v>0.5104569234088956</v>
+        <v>0.5104569234091514</v>
       </c>
       <c r="D8">
-        <v>0.1964357754800545</v>
+        <v>0.1964357754801114</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.260820244445938</v>
+        <v>6.26082024444591</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1114908088810047</v>
+        <v>0.1114908088809798</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1167291213576362</v>
+        <v>0.1167291213576647</v>
       </c>
       <c r="L8">
-        <v>0.6053241791574635</v>
+        <v>0.6053241791574351</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.535756231144376</v>
+        <v>3.535756231144092</v>
       </c>
       <c r="C9">
-        <v>0.7156482123681656</v>
+        <v>0.7156482123677392</v>
       </c>
       <c r="D9">
-        <v>0.2622745575513648</v>
+        <v>0.262274557551109</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.350433317552216</v>
+        <v>8.350433317552302</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1419230428235458</v>
+        <v>0.1419230428235281</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1592343184393314</v>
+        <v>0.1592343184392639</v>
       </c>
       <c r="L9">
-        <v>0.8409853349880478</v>
+        <v>0.8409853349880052</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.336002843225344</v>
+        <v>4.336002843225572</v>
       </c>
       <c r="C10">
-        <v>0.8796616957022252</v>
+        <v>0.8796616957017704</v>
       </c>
       <c r="D10">
-        <v>0.3146384627719954</v>
+        <v>0.3146384627717396</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1661225858541684</v>
+        <v>0.1661225858542466</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1930446522564964</v>
+        <v>0.1930446522564893</v>
       </c>
       <c r="L10">
-        <v>1.028381489800104</v>
+        <v>1.02838148980009</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.719410871433865</v>
+        <v>4.719410871433922</v>
       </c>
       <c r="C11">
-        <v>0.9586184449774748</v>
+        <v>0.9586184449783559</v>
       </c>
       <c r="D11">
-        <v>0.3397453970169693</v>
+        <v>0.3397453970176372</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.80010349373509</v>
+        <v>10.80010349373515</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1777111555309077</v>
+        <v>0.177711155530865</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2092267787584206</v>
+        <v>0.2092267787584348</v>
       </c>
       <c r="L11">
-        <v>1.118121203592771</v>
+        <v>1.118121203592821</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.868030336937125</v>
+        <v>4.868030336936783</v>
       </c>
       <c r="C12">
-        <v>0.9892987148753889</v>
+        <v>0.9892987148754457</v>
       </c>
       <c r="D12">
-        <v>0.3494817354239359</v>
+        <v>0.3494817354233533</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.10700063744451</v>
+        <v>11.10700063744434</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2154949299571882</v>
+        <v>0.2154949299572237</v>
       </c>
       <c r="L12">
         <v>1.152895911393166</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.835858063434046</v>
+        <v>4.835858063434216</v>
       </c>
       <c r="C13">
-        <v>0.9826535600852253</v>
+        <v>0.982653560084799</v>
       </c>
       <c r="D13">
-        <v>0.3473738592594913</v>
+        <v>0.3473738592593918</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.0405789474537</v>
+        <v>11.04057894745398</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1812296803015201</v>
+        <v>0.1812296803014739</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2141382743525071</v>
+        <v>0.2141382743524716</v>
       </c>
       <c r="L13">
-        <v>1.145368651254316</v>
+        <v>1.145368651254323</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.731564916192781</v>
+        <v>4.731564916192895</v>
       </c>
       <c r="C14">
-        <v>0.9611258542099677</v>
+        <v>0.9611258542095982</v>
       </c>
       <c r="D14">
-        <v>0.3405415388994584</v>
+        <v>0.3405415388992452</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1780784242188389</v>
+        <v>0.1780784242188496</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2097394886164849</v>
+        <v>0.2097394886164494</v>
       </c>
       <c r="L14">
-        <v>1.120965312083008</v>
+        <v>1.120965312083001</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.668150741022089</v>
+        <v>4.668150741022259</v>
       </c>
       <c r="C15">
         <v>0.9480464654841967</v>
       </c>
       <c r="D15">
-        <v>0.3363878165006895</v>
+        <v>0.3363878165004053</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.176162120714153</v>
+        <v>0.1761621207142312</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2070642130647116</v>
+        <v>0.2070642130647329</v>
       </c>
       <c r="L15">
         <v>1.106125607061692</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.311388146312822</v>
+        <v>4.311388146312936</v>
       </c>
       <c r="C16">
-        <v>0.874601711777018</v>
+        <v>0.8746017117775011</v>
       </c>
       <c r="D16">
-        <v>0.3130270983471206</v>
+        <v>0.3130270983469501</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.956734739823247</v>
+        <v>9.956734739823162</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1653784368456144</v>
+        <v>0.1653784368455824</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0.1920052709047297</v>
       </c>
       <c r="L16">
-        <v>1.02261900020595</v>
+        <v>1.022619000205957</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,16 +985,16 @@
         <v>4.097905448636595</v>
       </c>
       <c r="C17">
-        <v>0.8307595639989813</v>
+        <v>0.8307595639994645</v>
       </c>
       <c r="D17">
-        <v>0.2990539991515107</v>
+        <v>0.2990539991515959</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.515016273947936</v>
+        <v>9.515016273947708</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1589237670262484</v>
+        <v>0.1589237670263017</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1829887076885761</v>
+        <v>0.1829887076885406</v>
       </c>
       <c r="L17">
-        <v>0.9726358182494295</v>
+        <v>0.9726358182493939</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.97689355394283</v>
+        <v>3.976893553943</v>
       </c>
       <c r="C18">
-        <v>0.8059407004134016</v>
+        <v>0.8059407004133448</v>
       </c>
       <c r="D18">
-        <v>0.2911350191637325</v>
+        <v>0.2911350191636899</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.264494304292555</v>
+        <v>9.264494304292668</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1552644902021427</v>
+        <v>0.1552644902021143</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1778763105563321</v>
+        <v>0.1778763105562717</v>
       </c>
       <c r="L18">
-        <v>0.9442993237659323</v>
+        <v>0.9442993237659607</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.936208810922778</v>
+        <v>3.936208810922835</v>
       </c>
       <c r="C19">
-        <v>0.7976015987692335</v>
+        <v>0.7976015987706546</v>
       </c>
       <c r="D19">
-        <v>0.2884728570923158</v>
+        <v>0.2884728570924437</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.180245984652117</v>
+        <v>9.180245984651833</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1761573138910322</v>
+        <v>0.1761573138910961</v>
       </c>
       <c r="L19">
-        <v>0.9347719466247639</v>
+        <v>0.9347719466247355</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.120442814558373</v>
+        <v>4.12044281455843</v>
       </c>
       <c r="C20">
-        <v>0.8353844237404928</v>
+        <v>0.8353844237409476</v>
       </c>
       <c r="D20">
-        <v>0.3005289598946064</v>
+        <v>0.3005289598941658</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.561662966694115</v>
+        <v>9.561662966694144</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1596052395902987</v>
+        <v>0.1596052395902952</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.1839407439283285</v>
+        <v>0.1839407439283569</v>
       </c>
       <c r="L20">
-        <v>0.9779129567196705</v>
+        <v>0.9779129567196989</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,16 +1137,16 @@
         <v>4.762099372136106</v>
       </c>
       <c r="C21">
-        <v>0.9674264439537978</v>
+        <v>0.967426443953741</v>
       </c>
       <c r="D21">
-        <v>0.342541748018661</v>
+        <v>0.3425417480185757</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.88827103596503</v>
+        <v>10.88827103596526</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1790010818794414</v>
+        <v>0.1790010818794165</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2110274842373485</v>
+        <v>0.211027484237384</v>
       </c>
       <c r="L21">
-        <v>1.128110341058701</v>
+        <v>1.128110341058758</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.20186838379243</v>
+        <v>5.201868383792373</v>
       </c>
       <c r="C22">
-        <v>1.058376485676121</v>
+        <v>1.058376485676462</v>
       </c>
       <c r="D22">
-        <v>0.3713614167199779</v>
+        <v>0.3713614167202053</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.79577735617136</v>
+        <v>11.79577735617124</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1922848042594936</v>
+        <v>0.192284804259554</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2295639054580221</v>
+        <v>0.2295639054580292</v>
       </c>
       <c r="L22">
-        <v>1.230983158412357</v>
+        <v>1.230983158412336</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.965035604417267</v>
+        <v>4.965035604417551</v>
       </c>
       <c r="C23">
-        <v>1.009347560422754</v>
+        <v>1.009347560423635</v>
       </c>
       <c r="D23">
-        <v>0.3558380858362966</v>
+        <v>0.3558380858364671</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.3072281419827</v>
+        <v>11.30722814198288</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1851321585355024</v>
+        <v>0.1851321585355414</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2195846619182475</v>
+        <v>0.219584661918212</v>
       </c>
       <c r="L23">
-        <v>1.175590001717737</v>
+        <v>1.175590001717765</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.110248354129055</v>
+        <v>4.110248354128885</v>
       </c>
       <c r="C24">
-        <v>0.8332923318676251</v>
+        <v>0.8332923318671419</v>
       </c>
       <c r="D24">
-        <v>0.2998617771841481</v>
+        <v>0.2998617771839207</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.540563411548987</v>
+        <v>9.540563411549016</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1592969864892595</v>
+        <v>0.1592969864892417</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.1835101079412986</v>
+        <v>0.1835101079412738</v>
       </c>
       <c r="L24">
-        <v>0.975525928671388</v>
+        <v>0.9755259286713951</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.254614727600881</v>
+        <v>3.25461472760071</v>
       </c>
       <c r="C25">
-        <v>0.6582334859607215</v>
+        <v>0.6582334859598404</v>
       </c>
       <c r="D25">
-        <v>0.2438846202674654</v>
+        <v>0.2438846202672948</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.76724887241312</v>
+        <v>7.767248872413035</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1334197285558467</v>
+        <v>0.1334197285558361</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1473526111178138</v>
+        <v>0.1473526111178103</v>
       </c>
       <c r="L25">
         <v>0.7751359171923795</v>

--- a/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.66328655889572</v>
+        <v>2.638073731523946</v>
       </c>
       <c r="C2">
-        <v>0.5377045118657406</v>
+        <v>0.523663427750364</v>
       </c>
       <c r="D2">
-        <v>0.2051956502297685</v>
+        <v>0.2084198687196022</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.539037357930994</v>
+        <v>6.553716901976969</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000783401037343452</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1155365142605014</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1141516414313877</v>
       </c>
       <c r="K2">
-        <v>0.1223753922561706</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6366510847373306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1218485693447882</v>
+      </c>
+      <c r="M2">
+        <v>0.6331287751794079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.279600184409276</v>
+        <v>2.259508297363993</v>
       </c>
       <c r="C3">
-        <v>0.459574605981885</v>
+        <v>0.4470381334038507</v>
       </c>
       <c r="D3">
-        <v>0.1800663083103018</v>
+        <v>0.1835035596486279</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.74094551738807</v>
+        <v>5.762446128568968</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007950231958537898</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1039368014497875</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.10259294973892</v>
       </c>
       <c r="K3">
-        <v>0.10619378037293</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5468375671407415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1056999587494758</v>
+      </c>
+      <c r="M3">
+        <v>0.5441499295126988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.050531741202917</v>
+        <v>2.033562063824945</v>
       </c>
       <c r="C4">
-        <v>0.4129118355317587</v>
+        <v>0.4012959247579317</v>
       </c>
       <c r="D4">
-        <v>0.1650432028020106</v>
+        <v>0.1686050052081072</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.264012173359703</v>
+        <v>5.289574257070143</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008022890292129201</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.09701388544491962</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.09569244632574581</v>
       </c>
       <c r="K4">
-        <v>0.09654978923498447</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.493248369780666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.09607316820802581</v>
+      </c>
+      <c r="M4">
+        <v>0.4910641548570069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.958577624953648</v>
+        <v>1.942878891825046</v>
       </c>
       <c r="C5">
-        <v>0.394168592128608</v>
+        <v>0.3829281572318166</v>
       </c>
       <c r="D5">
-        <v>0.1590062708932294</v>
+        <v>0.1626175508963996</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.072456503948075</v>
+        <v>5.099649486290019</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008052864141451576</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.09423543551261204</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.09292253038706377</v>
       </c>
       <c r="K5">
-        <v>0.0926831979544005</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4717453638408671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.09221292047203633</v>
+      </c>
+      <c r="M5">
+        <v>0.4697648405857393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.943386219014428</v>
+        <v>1.927898551564908</v>
       </c>
       <c r="C6">
-        <v>0.3910711961131028</v>
+        <v>0.3798931598591366</v>
       </c>
       <c r="D6">
-        <v>0.1580085196260228</v>
+        <v>0.161627945914276</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.040804423956928</v>
+        <v>5.068266957368934</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008057864371639198</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.093776452741551</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.09246493106413567</v>
       </c>
       <c r="K6">
-        <v>0.09204471464184394</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4681935140039002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.09157545300019976</v>
+      </c>
+      <c r="M6">
+        <v>0.4662467472185909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.04928627872124</v>
+        <v>2.032333742292849</v>
       </c>
       <c r="C7">
-        <v>0.4126580257131707</v>
+        <v>0.4010471759563359</v>
       </c>
       <c r="D7">
-        <v>0.1649614632315348</v>
+        <v>0.1685239377281817</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.26141806960473</v>
+        <v>5.287002236817614</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008023293004462091</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.09697625066003823</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.09565492894130756</v>
       </c>
       <c r="K7">
-        <v>0.09649739856465445</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4929570860519448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.09602086566004786</v>
+      </c>
+      <c r="M7">
+        <v>0.4907756230913947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.529481637812808</v>
+        <v>2.506041816690527</v>
       </c>
       <c r="C8">
-        <v>0.5104569234091514</v>
+        <v>0.496936069736762</v>
       </c>
       <c r="D8">
-        <v>0.1964357754801114</v>
+        <v>0.1997349375352684</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.26082024444591</v>
+        <v>6.277883002312706</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000787383888876977</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1114908088809798</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1101207204778163</v>
       </c>
       <c r="K8">
-        <v>0.1167291213576647</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6053241791574351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.116214381586154</v>
+      </c>
+      <c r="M8">
+        <v>0.602092086349721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.535756231144092</v>
+        <v>3.499188587523008</v>
       </c>
       <c r="C9">
-        <v>0.7156482123677392</v>
+        <v>0.6982913786869176</v>
       </c>
       <c r="D9">
-        <v>0.262274557551109</v>
+        <v>0.2649914731316301</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.350433317552302</v>
+        <v>8.349355437328313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007589044314998077</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1419230428235281</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.140429818318669</v>
       </c>
       <c r="K9">
-        <v>0.1592343184392639</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8409853349880052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1586144578296249</v>
+      </c>
+      <c r="M9">
+        <v>0.8355751023786766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.336002843225572</v>
+        <v>4.289128813773118</v>
       </c>
       <c r="C10">
-        <v>0.8796616957017704</v>
+        <v>0.8593160894895391</v>
       </c>
       <c r="D10">
-        <v>0.3146384627717396</v>
+        <v>0.3168583505419491</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.00764528756648</v>
+        <v>9.991608336272492</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007381528782375191</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1661225858542466</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1645122238271703</v>
       </c>
       <c r="K10">
-        <v>0.1930446522564893</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.02838148980009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.1923183502613526</v>
+      </c>
+      <c r="M10">
+        <v>1.021216526551576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.719410871433922</v>
+        <v>4.667575073346143</v>
       </c>
       <c r="C11">
-        <v>0.9586184449783559</v>
+        <v>0.9368400588913062</v>
       </c>
       <c r="D11">
-        <v>0.3397453970176372</v>
+        <v>0.3417150547032861</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.80010349373515</v>
+        <v>10.77666978643606</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007286564759981588</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.177711155530865</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1760385816190571</v>
       </c>
       <c r="K11">
-        <v>0.2092267787584348</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.118121203592821</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2084422372401846</v>
+      </c>
+      <c r="M11">
+        <v>1.110098392105272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.868030336936783</v>
+        <v>4.814261416062209</v>
       </c>
       <c r="C12">
-        <v>0.9892987148754457</v>
+        <v>0.9669630917072141</v>
       </c>
       <c r="D12">
-        <v>0.3494817354233533</v>
+        <v>0.3513521233542889</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.10700063744434</v>
+        <v>11.08065356114111</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007250425505514585</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1822016821205708</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1805039027852899</v>
       </c>
       <c r="K12">
-        <v>0.2154949299572237</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.152895911393166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2146865141242813</v>
+      </c>
+      <c r="M12">
+        <v>1.144536666684218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.835858063434216</v>
+        <v>4.782508171885979</v>
       </c>
       <c r="C13">
-        <v>0.982653560084799</v>
+        <v>0.9604386801833016</v>
       </c>
       <c r="D13">
-        <v>0.3473738592593918</v>
+        <v>0.3492658474031884</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.04057894745398</v>
+        <v>11.01486483801347</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007258218451868534</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1812296803014739</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.17953740966189</v>
       </c>
       <c r="K13">
-        <v>0.2141382743524716</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.145368651254323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2133350891424115</v>
+      </c>
+      <c r="M13">
+        <v>1.137082436608729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.731564916192895</v>
+        <v>4.679571266650441</v>
       </c>
       <c r="C14">
-        <v>0.9611258542095982</v>
+        <v>0.939301946216915</v>
       </c>
       <c r="D14">
-        <v>0.3405415388992452</v>
+        <v>0.3425031271317351</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.82520742778001</v>
+        <v>10.80153647335237</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007283595769757017</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1780784242188496</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1764038121330245</v>
       </c>
       <c r="K14">
-        <v>0.2097394886164494</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.120965312083001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2089530222246623</v>
+      </c>
+      <c r="M14">
+        <v>1.11291507473041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.668150741022259</v>
+        <v>4.616980251781797</v>
       </c>
       <c r="C15">
-        <v>0.9480464654841967</v>
+        <v>0.9264599838233494</v>
       </c>
       <c r="D15">
-        <v>0.3363878165004053</v>
+        <v>0.3383914128826859</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.69421506893212</v>
+        <v>10.67178002442535</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007299113633607284</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1761621207142312</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1744980978289057</v>
       </c>
       <c r="K15">
-        <v>0.2070642130647329</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.106125607061692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2062877360855069</v>
+      </c>
+      <c r="M15">
+        <v>1.098218299110641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.311388146312936</v>
+        <v>4.264831701576952</v>
       </c>
       <c r="C16">
-        <v>0.8746017117775011</v>
+        <v>0.8543479404087861</v>
       </c>
       <c r="D16">
-        <v>0.3130270983469501</v>
+        <v>0.3152627711546785</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.956734739823162</v>
+        <v>9.94116711794544</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007387715679739677</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1653784368455824</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1637719322058331</v>
       </c>
       <c r="K16">
-        <v>0.1920052709047297</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.022619000205957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.1912825452772395</v>
+      </c>
+      <c r="M16">
+        <v>1.015508661902821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.097905448636595</v>
+        <v>4.054100234178861</v>
       </c>
       <c r="C17">
-        <v>0.8307595639994645</v>
+        <v>0.8113020272957669</v>
       </c>
       <c r="D17">
-        <v>0.2990539991515959</v>
+        <v>0.301425209464</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.515016273947708</v>
+        <v>9.503492935509172</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007441862463148652</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1589237670263017</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.157350034976222</v>
       </c>
       <c r="K17">
-        <v>0.1829887076885406</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9726358182493939</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.1822961882164371</v>
+      </c>
+      <c r="M17">
+        <v>0.9659972449108096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.976893553943</v>
+        <v>3.934646147170724</v>
       </c>
       <c r="C18">
-        <v>0.8059407004133448</v>
+        <v>0.7869345563010484</v>
       </c>
       <c r="D18">
-        <v>0.2911350191636899</v>
+        <v>0.2935819928461569</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.264494304292668</v>
+        <v>9.255243441570428</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007472960009615726</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1552644902021143</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.153708794938261</v>
       </c>
       <c r="K18">
-        <v>0.1778763105562717</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9442993237659607</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.1772002711194816</v>
+      </c>
+      <c r="M18">
+        <v>0.9379267092552794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.936208810922835</v>
+        <v>3.89448500881781</v>
       </c>
       <c r="C19">
-        <v>0.7976015987706546</v>
+        <v>0.7787472661859454</v>
       </c>
       <c r="D19">
-        <v>0.2884728570924437</v>
+        <v>0.2909451332575941</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.180245984651833</v>
+        <v>9.171756031869677</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007483483812217312</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.154034160887857</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1524844423349059</v>
       </c>
       <c r="K19">
-        <v>0.1761573138910961</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9347719466247355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.1754867113305387</v>
+      </c>
+      <c r="M19">
+        <v>0.9284885339723772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.12044281455843</v>
+        <v>4.076347370313727</v>
       </c>
       <c r="C20">
-        <v>0.8353844237409476</v>
+        <v>0.8158428339012573</v>
       </c>
       <c r="D20">
-        <v>0.3005289598941658</v>
+        <v>0.3028859757283016</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.561662966694144</v>
+        <v>9.549714837191885</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007436103874758769</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1596052395902952</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1580281052995467</v>
       </c>
       <c r="K20">
-        <v>0.1839407439283569</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9779129567196989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.1832451040297158</v>
+      </c>
+      <c r="M20">
+        <v>0.9712247398980338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.762099372136106</v>
+        <v>4.709708973639465</v>
       </c>
       <c r="C21">
-        <v>0.967426443953741</v>
+        <v>0.9454881355816838</v>
       </c>
       <c r="D21">
-        <v>0.3425417480185757</v>
+        <v>0.3444830253568369</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.88827103596526</v>
+        <v>10.8640032651557</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007276147556967491</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1790010818794165</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1773213312033945</v>
       </c>
       <c r="K21">
-        <v>0.211027484237384</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.128110341058758</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2102361604218146</v>
+      </c>
+      <c r="M21">
+        <v>1.119991134426485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.201868383792373</v>
+        <v>5.143730303798009</v>
       </c>
       <c r="C22">
-        <v>1.058376485676462</v>
+        <v>1.034783328697529</v>
       </c>
       <c r="D22">
-        <v>0.3713614167202053</v>
+        <v>0.3730039482785514</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.79577735617124</v>
+        <v>11.76278381627043</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007170505511101126</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.192284804259554</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1905281293923942</v>
       </c>
       <c r="K22">
-        <v>0.2295639054580292</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.230983158412336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2286991439493633</v>
+      </c>
+      <c r="M22">
+        <v>1.221859063333639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.965035604417551</v>
+        <v>4.910001216252169</v>
       </c>
       <c r="C23">
-        <v>1.009347560423635</v>
+        <v>0.9866474419140445</v>
       </c>
       <c r="D23">
-        <v>0.3558380858364671</v>
+        <v>0.3576429689780269</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.30722814198288</v>
+        <v>11.27896468815408</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007227027284593951</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1851321585355414</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1834175929965909</v>
       </c>
       <c r="K23">
-        <v>0.219584661918212</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.175590001717765</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2187602642661659</v>
+      </c>
+      <c r="M23">
+        <v>1.167009860066642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.110248354128885</v>
+        <v>4.066284196187326</v>
       </c>
       <c r="C24">
-        <v>0.8332923318671419</v>
+        <v>0.8137887620057427</v>
       </c>
       <c r="D24">
-        <v>0.2998617771839207</v>
+        <v>0.3022252169920137</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.540563411549016</v>
+        <v>9.528807492094415</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007438707425042333</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1592969864892417</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1577213928318493</v>
       </c>
       <c r="K24">
-        <v>0.1835101079412738</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9755259286713951</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.1828158815178291</v>
+      </c>
+      <c r="M24">
+        <v>0.9688601718537555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.25461472760071</v>
+        <v>3.221678899965696</v>
       </c>
       <c r="C25">
-        <v>0.6582334859598404</v>
+        <v>0.6419343600715592</v>
       </c>
       <c r="D25">
-        <v>0.2438846202672948</v>
+        <v>0.2467686993949627</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.767248872413035</v>
+        <v>7.771299393223529</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007665512475054437</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1334197285558361</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1319636391750443</v>
       </c>
       <c r="K25">
-        <v>0.1473526111178103</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7751359171923795</v>
+        <v>0.1467653723589635</v>
+      </c>
+      <c r="M25">
+        <v>0.7703348904912062</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.638073731523946</v>
+        <v>4.043047680179143</v>
       </c>
       <c r="C2">
-        <v>0.523663427750364</v>
+        <v>0.5607916994062521</v>
       </c>
       <c r="D2">
-        <v>0.2084198687196022</v>
+        <v>0.0200364204091743</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.553716901976969</v>
+        <v>1.635834457473365</v>
       </c>
       <c r="G2">
-        <v>0.000783401037343452</v>
+        <v>0.0007835946863595233</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1141516414313877</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1218485693447882</v>
+        <v>0.4091505622741636</v>
       </c>
       <c r="M2">
-        <v>0.6331287751794079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.728936564978067</v>
+      </c>
+      <c r="O2">
+        <v>1.275878740225664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.259508297363993</v>
+        <v>3.501153273386649</v>
       </c>
       <c r="C3">
-        <v>0.4470381334038507</v>
+        <v>0.491682400809708</v>
       </c>
       <c r="D3">
-        <v>0.1835035596486279</v>
+        <v>0.02175709397184455</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.762446128568968</v>
+        <v>1.469327009369096</v>
       </c>
       <c r="G3">
-        <v>0.0007950231958537898</v>
+        <v>0.0007915462759427675</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.10259294973892</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1056999587494758</v>
+        <v>0.3593036581787032</v>
       </c>
       <c r="M3">
-        <v>0.5441499295126988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.780559082356028</v>
+      </c>
+      <c r="O3">
+        <v>1.153621477342099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.033562063824945</v>
+        <v>3.173237517420091</v>
       </c>
       <c r="C4">
-        <v>0.4012959247579317</v>
+        <v>0.4495774821539555</v>
       </c>
       <c r="D4">
-        <v>0.1686050052081072</v>
+        <v>0.02287022410985351</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.289574257070143</v>
+        <v>1.370958411516227</v>
       </c>
       <c r="G4">
-        <v>0.0008022890292129201</v>
+        <v>0.0007965603564273082</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09569244632574581</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.09607316820802581</v>
+        <v>0.3293658058532856</v>
       </c>
       <c r="M4">
-        <v>0.4910641548570069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.8138579227409828</v>
+      </c>
+      <c r="O4">
+        <v>1.081718357979227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.942878891825046</v>
+        <v>3.040653029236523</v>
       </c>
       <c r="C5">
-        <v>0.3829281572318166</v>
+        <v>0.4324831298075651</v>
       </c>
       <c r="D5">
-        <v>0.1626175508963996</v>
+        <v>0.02333719444419824</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.099649486290019</v>
+        <v>1.331748570111614</v>
       </c>
       <c r="G5">
-        <v>0.0008052864141451576</v>
+        <v>0.000798638251733319</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09292253038706377</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.09221292047203633</v>
+        <v>0.3173150071347379</v>
       </c>
       <c r="M5">
-        <v>0.4697648405857393</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.8278117591447121</v>
+      </c>
+      <c r="O5">
+        <v>1.0531355881877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.927898551564908</v>
+        <v>3.01869593703924</v>
       </c>
       <c r="C6">
-        <v>0.3798931598591366</v>
+        <v>0.4296479550319816</v>
       </c>
       <c r="D6">
-        <v>0.161627945914276</v>
+        <v>0.02341551748544113</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.068266957368934</v>
+        <v>1.325288052674196</v>
       </c>
       <c r="G6">
-        <v>0.0008057864371639198</v>
+        <v>0.0007989854167343354</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09246493106413567</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09157545300019976</v>
+        <v>0.3153224623990809</v>
       </c>
       <c r="M6">
-        <v>0.4662467472185909</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.8301514771744145</v>
+      </c>
+      <c r="O6">
+        <v>1.048430690561304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.032333742292849</v>
+        <v>3.171445419170993</v>
       </c>
       <c r="C7">
-        <v>0.4010471759563359</v>
+        <v>0.4493467073881732</v>
       </c>
       <c r="D7">
-        <v>0.1685239377281817</v>
+        <v>0.022876468833255</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.287002236817614</v>
+        <v>1.370426188082675</v>
       </c>
       <c r="G7">
-        <v>0.0008023293004462091</v>
+        <v>0.0007965882375826341</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09565492894130756</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.09602086566004786</v>
+        <v>0.3292027047277486</v>
       </c>
       <c r="M7">
-        <v>0.4907756230913947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.8140445765989099</v>
+      </c>
+      <c r="O7">
+        <v>1.081330069602075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.506041816690527</v>
+        <v>3.855100098294884</v>
       </c>
       <c r="C8">
-        <v>0.496936069736762</v>
+        <v>0.5368827516714418</v>
       </c>
       <c r="D8">
-        <v>0.1997349375352684</v>
+        <v>0.02061739666682083</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.277883002312706</v>
+        <v>1.577559388006662</v>
       </c>
       <c r="G8">
-        <v>0.000787383888876977</v>
+        <v>0.0007863099738174585</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1101207204778163</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.116214381586154</v>
+        <v>0.3918127326228813</v>
       </c>
       <c r="M8">
-        <v>0.602092086349721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.7463917151531305</v>
+      </c>
+      <c r="O8">
+        <v>1.233019420374475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.499188587523008</v>
+        <v>5.24220636724732</v>
       </c>
       <c r="C9">
-        <v>0.6982913786869176</v>
+        <v>0.7120977334046756</v>
       </c>
       <c r="D9">
-        <v>0.2649914731316301</v>
+        <v>0.01668161026884363</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.349355437328313</v>
+        <v>2.019246389779752</v>
       </c>
       <c r="G9">
-        <v>0.0007589044314998077</v>
+        <v>0.0007671262939921782</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.140429818318669</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1586144578296249</v>
+        <v>0.5208398017247617</v>
       </c>
       <c r="M9">
-        <v>0.8355751023786766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.6273646301196507</v>
+      </c>
+      <c r="O9">
+        <v>1.559431854514415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.289128813773118</v>
+        <v>6.302629599956219</v>
       </c>
       <c r="C10">
-        <v>0.8593160894895391</v>
+        <v>0.8444956382548412</v>
       </c>
       <c r="D10">
-        <v>0.3168583505419491</v>
+        <v>0.0141634669114481</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.991608336272492</v>
+        <v>2.37290341556097</v>
       </c>
       <c r="G10">
-        <v>0.0007381528782375191</v>
+        <v>0.0007535103971418912</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1645122238271703</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1923183502613526</v>
+        <v>0.6209207327758151</v>
       </c>
       <c r="M10">
-        <v>1.021216526551576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.5496695032659673</v>
+      </c>
+      <c r="O10">
+        <v>1.822907928396916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.667575073346143</v>
+        <v>6.797358664289618</v>
       </c>
       <c r="C11">
-        <v>0.9368400588913062</v>
+        <v>0.9059125831167876</v>
       </c>
       <c r="D11">
-        <v>0.3417150547032861</v>
+        <v>0.01311846408233208</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.77666978643606</v>
+        <v>2.542053667417974</v>
       </c>
       <c r="G11">
-        <v>0.0007286564759981588</v>
+        <v>0.0007473909353024055</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1760385816190571</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2084422372401846</v>
+        <v>0.6679760124914509</v>
       </c>
       <c r="M11">
-        <v>1.110098392105272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.5168142567760583</v>
+      </c>
+      <c r="O11">
+        <v>1.949457370630256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.814261416062209</v>
+        <v>6.986794198172277</v>
       </c>
       <c r="C12">
-        <v>0.9669630917072141</v>
+        <v>0.9293780851609199</v>
       </c>
       <c r="D12">
-        <v>0.3513521233542889</v>
+        <v>0.01273916426488775</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.08065356114111</v>
+        <v>2.60748172088077</v>
       </c>
       <c r="G12">
-        <v>0.0007250425505514585</v>
+        <v>0.0007450815937314993</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1805039027852899</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2146865141242813</v>
+        <v>0.6860505436048214</v>
       </c>
       <c r="M12">
-        <v>1.144536666684218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.5047670204119967</v>
+      </c>
+      <c r="O12">
+        <v>1.998490136368176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.782508171885979</v>
+        <v>6.9458972854531</v>
       </c>
       <c r="C13">
-        <v>0.9604386801833016</v>
+        <v>0.9243144573980828</v>
       </c>
       <c r="D13">
-        <v>0.3492658474031884</v>
+        <v>0.01282008820822611</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.01486483801347</v>
+        <v>2.593326270224679</v>
       </c>
       <c r="G13">
-        <v>0.0007258218451868534</v>
+        <v>0.0007455786449615437</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.17953740966189</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2133350891424115</v>
+        <v>0.6821458732744929</v>
       </c>
       <c r="M13">
-        <v>1.137082436608729</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.5073434366672842</v>
+      </c>
+      <c r="O13">
+        <v>1.987878046241505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.679571266650441</v>
+        <v>6.812899731865571</v>
       </c>
       <c r="C14">
-        <v>0.939301946216915</v>
+        <v>0.9078386982601216</v>
       </c>
       <c r="D14">
-        <v>0.3425031271317351</v>
+        <v>0.01308691736672429</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.80153647335237</v>
+        <v>2.54740777581361</v>
       </c>
       <c r="G14">
-        <v>0.0007283595769757017</v>
+        <v>0.000747200801818569</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1764038121330245</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2089530222246623</v>
+        <v>0.6694576672082206</v>
       </c>
       <c r="M14">
-        <v>1.11291507473041</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.5158149939626924</v>
+      </c>
+      <c r="O14">
+        <v>1.953468131465513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.616980251781797</v>
+        <v>6.731717541129228</v>
       </c>
       <c r="C15">
-        <v>0.9264599838233494</v>
+        <v>0.89777513526397</v>
       </c>
       <c r="D15">
-        <v>0.3383914128826859</v>
+        <v>0.01325256011535458</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.67178002442535</v>
+        <v>2.519466294285138</v>
       </c>
       <c r="G15">
-        <v>0.0007299113633607284</v>
+        <v>0.0007481953696055675</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1744980978289057</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2062877360855069</v>
+        <v>0.661720224396376</v>
       </c>
       <c r="M15">
-        <v>1.098218299110641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.5210565869018851</v>
+      </c>
+      <c r="O15">
+        <v>1.93254053585855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.264831701576952</v>
+        <v>6.270572425124328</v>
       </c>
       <c r="C16">
-        <v>0.8543479404087861</v>
+        <v>0.8405088882202847</v>
       </c>
       <c r="D16">
-        <v>0.3152627711546785</v>
+        <v>0.01423394390501009</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.94116711794544</v>
+        <v>2.362030757193168</v>
       </c>
       <c r="G16">
-        <v>0.0007387715679739677</v>
+        <v>0.0007539115903950218</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1637719322058331</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1912825452772395</v>
+        <v>0.6178792799498467</v>
       </c>
       <c r="M16">
-        <v>1.015508661902821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.5518697575631535</v>
+      </c>
+      <c r="O16">
+        <v>1.814784582765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.054100234178861</v>
+        <v>5.991048487455828</v>
       </c>
       <c r="C17">
-        <v>0.8113020272957669</v>
+        <v>0.8057072998643946</v>
       </c>
       <c r="D17">
-        <v>0.301425209464</v>
+        <v>0.01486303808481537</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.503492935509172</v>
+        <v>2.267691725120073</v>
       </c>
       <c r="G17">
-        <v>0.0007441862463148652</v>
+        <v>0.0007574355359021011</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.157350034976222</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1822961882164371</v>
+        <v>0.5913998355024859</v>
       </c>
       <c r="M17">
-        <v>0.9659972449108096</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.5714345128838048</v>
+      </c>
+      <c r="O17">
+        <v>1.744359218268741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.934646147170724</v>
+        <v>5.83141362544751</v>
       </c>
       <c r="C18">
-        <v>0.7869345563010484</v>
+        <v>0.7857996974024672</v>
       </c>
       <c r="D18">
-        <v>0.2935819928461569</v>
+        <v>0.01523420247745122</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.255243441570428</v>
+        <v>2.214196392233148</v>
       </c>
       <c r="G18">
-        <v>0.0007472960009615726</v>
+        <v>0.0007594696095920561</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.153708794938261</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1772002711194816</v>
+        <v>0.5763109714357739</v>
       </c>
       <c r="M18">
-        <v>0.9379267092552794</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.5829194395122705</v>
+      </c>
+      <c r="O18">
+        <v>1.704472396137248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.89448500881781</v>
+        <v>5.777550745732867</v>
       </c>
       <c r="C19">
-        <v>0.7787472661859454</v>
+        <v>0.7790770499562427</v>
       </c>
       <c r="D19">
-        <v>0.2909451332575941</v>
+        <v>0.01536141919877743</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.171756031869677</v>
+        <v>2.196210088377327</v>
       </c>
       <c r="G19">
-        <v>0.0007483483812217312</v>
+        <v>0.000760159625514234</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1524844423349059</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1754867113305387</v>
+        <v>0.5712254051912424</v>
       </c>
       <c r="M19">
-        <v>0.9284885339723772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.5868468153693946</v>
+      </c>
+      <c r="O19">
+        <v>1.691069663301477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.076347370313727</v>
+        <v>6.020684135877787</v>
       </c>
       <c r="C20">
-        <v>0.8158428339012573</v>
+        <v>0.8094004166184732</v>
       </c>
       <c r="D20">
-        <v>0.3028859757283016</v>
+        <v>0.01479509147014468</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.549714837191885</v>
+        <v>2.277653733639497</v>
       </c>
       <c r="G20">
-        <v>0.0007436103874758769</v>
+        <v>0.0007570596801451179</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1580281052995467</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1832451040297158</v>
+        <v>0.5942037356694101</v>
       </c>
       <c r="M20">
-        <v>0.9712247398980338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.5693275722556805</v>
+      </c>
+      <c r="O20">
+        <v>1.751790936138534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.709708973639465</v>
+        <v>6.85190480450143</v>
       </c>
       <c r="C21">
-        <v>0.9454881355816838</v>
+        <v>0.9126720531236288</v>
       </c>
       <c r="D21">
-        <v>0.3444830253568369</v>
+        <v>0.01300808027029809</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.8640032651557</v>
+        <v>2.560856246973572</v>
       </c>
       <c r="G21">
-        <v>0.0007276147556967491</v>
+        <v>0.000746724142402398</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1773213312033945</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2102361604218146</v>
+        <v>0.6731772506457077</v>
       </c>
       <c r="M21">
-        <v>1.119991134426485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.5133156750799941</v>
+      </c>
+      <c r="O21">
+        <v>1.963543713798742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.143730303798009</v>
+        <v>7.407530972897575</v>
       </c>
       <c r="C22">
-        <v>1.034783328697529</v>
+        <v>0.9814010636684145</v>
       </c>
       <c r="D22">
-        <v>0.3730039482785514</v>
+        <v>0.01193702996038759</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.76278381627043</v>
+        <v>2.754061815846029</v>
       </c>
       <c r="G22">
-        <v>0.0007170505511101126</v>
+        <v>0.0007400141611598743</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1905281293923942</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2286991439493633</v>
+        <v>0.7263017506783171</v>
       </c>
       <c r="M22">
-        <v>1.221859063333639</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.4790277621932759</v>
+      </c>
+      <c r="O22">
+        <v>2.108497616199855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.910001216252169</v>
+        <v>7.109733953277043</v>
       </c>
       <c r="C23">
-        <v>0.9866474419140445</v>
+        <v>0.9445923508868077</v>
       </c>
       <c r="D23">
-        <v>0.3576429689780269</v>
+        <v>0.01249906989170668</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.27896468815408</v>
+        <v>2.650133843447264</v>
       </c>
       <c r="G23">
-        <v>0.0007227027284593951</v>
+        <v>0.0007435922989969767</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1834175929965909</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2187602642661659</v>
+        <v>0.6977968190144708</v>
       </c>
       <c r="M23">
-        <v>1.167009860066642</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.4971022942065488</v>
+      </c>
+      <c r="O23">
+        <v>2.030478098316109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.066284196187326</v>
+        <v>6.007282558729514</v>
       </c>
       <c r="C24">
-        <v>0.8137887620057427</v>
+        <v>0.8077304488921584</v>
       </c>
       <c r="D24">
-        <v>0.3022252169920137</v>
+        <v>0.01482578072074325</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.528807492094415</v>
+        <v>2.273147613878507</v>
       </c>
       <c r="G24">
-        <v>0.0007438707425042333</v>
+        <v>0.0007572295790681327</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1577213928318493</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1828158815178291</v>
+        <v>0.592935676059966</v>
       </c>
       <c r="M24">
-        <v>0.9688601718537555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.5702793849560592</v>
+      </c>
+      <c r="O24">
+        <v>1.748429193450505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.221678899965696</v>
+        <v>4.860729934977599</v>
       </c>
       <c r="C25">
-        <v>0.6419343600715592</v>
+        <v>0.6641725358891222</v>
       </c>
       <c r="D25">
-        <v>0.2467686993949627</v>
+        <v>0.01768660824925128</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.771299393223529</v>
+        <v>1.895233763609568</v>
       </c>
       <c r="G25">
-        <v>0.0007665512475054437</v>
+        <v>0.0007722229927868454</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1319636391750443</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1467653723589635</v>
+        <v>0.4851230625432095</v>
       </c>
       <c r="M25">
-        <v>0.7703348904912062</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.6579660022818601</v>
+      </c>
+      <c r="O25">
+        <v>1.4674497787299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.043047680179143</v>
+        <v>3.263809941990246</v>
       </c>
       <c r="C2">
-        <v>0.5607916994062521</v>
+        <v>1.156662483599973</v>
       </c>
       <c r="D2">
-        <v>0.0200364204091743</v>
+        <v>0.008034557630507422</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.635834457473365</v>
+        <v>1.138777032627743</v>
       </c>
       <c r="G2">
-        <v>0.0007835946863595233</v>
+        <v>0.0007689382853645625</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4137269411769964</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4091505622741636</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.728936564978067</v>
+        <v>0.4913667553915673</v>
       </c>
       <c r="O2">
-        <v>1.275878740225664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.501153273386649</v>
+        <v>2.821673341169344</v>
       </c>
       <c r="C3">
-        <v>0.491682400809708</v>
+        <v>0.9979948366271287</v>
       </c>
       <c r="D3">
-        <v>0.02175709397184455</v>
+        <v>0.008877915736574593</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.469327009369096</v>
+        <v>1.01302201045695</v>
       </c>
       <c r="G3">
-        <v>0.0007915462759427675</v>
+        <v>0.0007761333239671512</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3862441898307196</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3593036581787032</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.780559082356028</v>
+        <v>0.5318290673918398</v>
       </c>
       <c r="O3">
-        <v>1.153621477342099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.173237517420091</v>
+        <v>2.552794180271405</v>
       </c>
       <c r="C4">
-        <v>0.4495774821539555</v>
+        <v>0.9017464832455744</v>
       </c>
       <c r="D4">
-        <v>0.02287022410985351</v>
+        <v>0.009433133477730671</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.370958411516227</v>
+        <v>0.9390147326947442</v>
       </c>
       <c r="G4">
-        <v>0.0007965603564273082</v>
+        <v>0.0007806712515176094</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3709949193357858</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3293658058532856</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8138579227409828</v>
+        <v>0.5579615999338685</v>
       </c>
       <c r="O4">
-        <v>1.081718357979227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.040653029236523</v>
+        <v>2.443769035452647</v>
       </c>
       <c r="C5">
-        <v>0.4324831298075651</v>
+        <v>0.8627717961509802</v>
       </c>
       <c r="D5">
-        <v>0.02333719444419824</v>
+        <v>0.009668082988517845</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.331748570111614</v>
+        <v>0.9095826797342426</v>
       </c>
       <c r="G5">
-        <v>0.000798638251733319</v>
+        <v>0.0007825519490619978</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3651548722378166</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3173150071347379</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8278117591447121</v>
+        <v>0.5689210258856043</v>
       </c>
       <c r="O5">
-        <v>1.0531355881877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.01869593703924</v>
+        <v>2.425695456196934</v>
       </c>
       <c r="C6">
-        <v>0.4296479550319816</v>
+        <v>0.8563136859834515</v>
       </c>
       <c r="D6">
-        <v>0.02341551748544113</v>
+        <v>0.009707601905727614</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.325288052674196</v>
+        <v>0.9047371694683477</v>
       </c>
       <c r="G6">
-        <v>0.0007989854167343354</v>
+        <v>0.0007828661719341326</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3642067746644955</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3153224623990809</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8301514771744145</v>
+        <v>0.5707591827033127</v>
       </c>
       <c r="O6">
-        <v>1.048430690561304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.171445419170993</v>
+        <v>2.551321756603954</v>
       </c>
       <c r="C7">
-        <v>0.4493467073881732</v>
+        <v>0.9012199162812635</v>
       </c>
       <c r="D7">
-        <v>0.022876468833255</v>
+        <v>0.00943626777215556</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.370426188082675</v>
+        <v>0.9386149612405177</v>
       </c>
       <c r="G7">
-        <v>0.0007965882375826341</v>
+        <v>0.0007806964863425557</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.37091468721718</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3292027047277486</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8140445765989099</v>
+        <v>0.5581081640216397</v>
       </c>
       <c r="O7">
-        <v>1.081330069602075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.855100098294884</v>
+        <v>3.110755454270247</v>
       </c>
       <c r="C8">
-        <v>0.5368827516714418</v>
+        <v>1.101680010567918</v>
       </c>
       <c r="D8">
-        <v>0.02061739666682083</v>
+        <v>0.008317136649822032</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.577559388006662</v>
+        <v>1.094701065373201</v>
       </c>
       <c r="G8">
-        <v>0.0007863099738174585</v>
+        <v>0.0007713949769720714</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4038919397160825</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3918127326228813</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7463917151531305</v>
+        <v>0.5050420903233004</v>
       </c>
       <c r="O8">
-        <v>1.233019420374475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.24220636724732</v>
+        <v>4.23374554571518</v>
       </c>
       <c r="C9">
-        <v>0.7120977334046756</v>
+        <v>1.50649893007602</v>
       </c>
       <c r="D9">
-        <v>0.01668161026884363</v>
+        <v>0.006455381308290598</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.019246389779752</v>
+        <v>1.430190210698086</v>
       </c>
       <c r="G9">
-        <v>0.0007671262939921782</v>
+        <v>0.000754046508521844</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4831637428599365</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5208398017247617</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6273646301196507</v>
+        <v>0.4118823368254354</v>
       </c>
       <c r="O9">
-        <v>1.559431854514415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.302629599956219</v>
+        <v>5.082970585897385</v>
       </c>
       <c r="C10">
-        <v>0.8444956382548412</v>
+        <v>1.814811515329041</v>
       </c>
       <c r="D10">
-        <v>0.0141634669114481</v>
+        <v>0.00534837361999152</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.37290341556097</v>
+        <v>1.7007307607022</v>
       </c>
       <c r="G10">
-        <v>0.0007535103971418912</v>
+        <v>0.0007417492740150466</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.5529457831699673</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6209207327758151</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5496695032659673</v>
+        <v>0.3511273956236707</v>
       </c>
       <c r="O10">
-        <v>1.822907928396916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.797358664289618</v>
+        <v>5.476681938793377</v>
       </c>
       <c r="C11">
-        <v>0.9059125831167876</v>
+        <v>1.958397637885582</v>
       </c>
       <c r="D11">
-        <v>0.01311846408233208</v>
+        <v>0.004916904056523563</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.542053667417974</v>
+        <v>1.830591805030181</v>
       </c>
       <c r="G11">
-        <v>0.0007473909353024055</v>
+        <v>0.0007362283775033118</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.5878689297286002</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6679760124914509</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5168142567760583</v>
+        <v>0.3254233920256802</v>
       </c>
       <c r="O11">
-        <v>1.949457370630256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.986794198172277</v>
+        <v>5.627035484921862</v>
       </c>
       <c r="C12">
-        <v>0.9293780851609199</v>
+        <v>2.013341130440892</v>
       </c>
       <c r="D12">
-        <v>0.01273916426488775</v>
+        <v>0.004765436088437269</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.60748172088077</v>
+        <v>1.880892215357576</v>
       </c>
       <c r="G12">
-        <v>0.0007450815937314993</v>
+        <v>0.0007341460175113048</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.601614661717619</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6860505436048214</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5047670204119967</v>
+        <v>0.3159935151332292</v>
       </c>
       <c r="O12">
-        <v>1.998490136368176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.9458972854531</v>
+        <v>5.594594501321581</v>
       </c>
       <c r="C13">
-        <v>0.9243144573980828</v>
+        <v>2.001481111379348</v>
       </c>
       <c r="D13">
-        <v>0.01282008820822611</v>
+        <v>0.004797499973520303</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.593326270224679</v>
+        <v>1.870006533014475</v>
       </c>
       <c r="G13">
-        <v>0.0007455786449615437</v>
+        <v>0.0007345941611408373</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.5986299926476164</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6821458732744929</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5073434366672842</v>
+        <v>0.3180104609279368</v>
       </c>
       <c r="O13">
-        <v>1.987878046241505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.812899731865571</v>
+        <v>5.48902505469465</v>
       </c>
       <c r="C14">
-        <v>0.9078386982601216</v>
+        <v>1.962905872861654</v>
       </c>
       <c r="D14">
-        <v>0.01308691736672429</v>
+        <v>0.004904194051842836</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.54740777581361</v>
+        <v>1.834706590783256</v>
       </c>
       <c r="G14">
-        <v>0.000747200801818569</v>
+        <v>0.0007360569082641012</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.5889889611776056</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6694576672082206</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5158149939626924</v>
+        <v>0.3246413466359428</v>
       </c>
       <c r="O14">
-        <v>1.953468131465513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.731717541129228</v>
+        <v>5.424531647286926</v>
       </c>
       <c r="C15">
-        <v>0.89777513526397</v>
+        <v>1.939354635209668</v>
       </c>
       <c r="D15">
-        <v>0.01325256011535458</v>
+        <v>0.004971149742893033</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.519466294285138</v>
+        <v>1.813235562071313</v>
       </c>
       <c r="G15">
-        <v>0.0007481953696055675</v>
+        <v>0.0007369538907684147</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.5831534460384447</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.661720224396376</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5210565869018851</v>
+        <v>0.3287433151349894</v>
       </c>
       <c r="O15">
-        <v>1.93254053585855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.270572425124328</v>
+        <v>5.057405986198432</v>
       </c>
       <c r="C16">
-        <v>0.8405088882202847</v>
+        <v>1.805502434675077</v>
       </c>
       <c r="D16">
-        <v>0.01423394390501009</v>
+        <v>0.005378149457436976</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.362030757193168</v>
+        <v>1.692392955836922</v>
       </c>
       <c r="G16">
-        <v>0.0007539115903950218</v>
+        <v>0.0007421113646975267</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.5507327341884078</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6178792799498467</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5518697575631535</v>
+        <v>0.3528482441737886</v>
       </c>
       <c r="O16">
-        <v>1.814784582765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.991048487455828</v>
+        <v>4.834215164874536</v>
       </c>
       <c r="C17">
-        <v>0.8057072998643946</v>
+        <v>1.724303516035718</v>
       </c>
       <c r="D17">
-        <v>0.01486303808481537</v>
+        <v>0.005647331069731365</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.267691725120073</v>
+        <v>1.620099196891658</v>
       </c>
       <c r="G17">
-        <v>0.0007574355359021011</v>
+        <v>0.000745292539140352</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.5317010034530014</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5913998355024859</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5714345128838048</v>
+        <v>0.3681483923384761</v>
       </c>
       <c r="O17">
-        <v>1.744359218268741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.83141362544751</v>
+        <v>4.706524378089057</v>
       </c>
       <c r="C18">
-        <v>0.7857996974024672</v>
+        <v>1.677907681095348</v>
       </c>
       <c r="D18">
-        <v>0.01523420247745122</v>
+        <v>0.005808839155298173</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.214196392233148</v>
+        <v>1.57914704017422</v>
       </c>
       <c r="G18">
-        <v>0.0007594696095920561</v>
+        <v>0.0007471293030383143</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.5210494143023894</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5763109714357739</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5829194395122705</v>
+        <v>0.3771289427991178</v>
       </c>
       <c r="O18">
-        <v>1.704472396137248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.777550745732867</v>
+        <v>4.663402011330675</v>
       </c>
       <c r="C19">
-        <v>0.7790770499562427</v>
+        <v>1.662249089921602</v>
       </c>
       <c r="D19">
-        <v>0.01536141919877743</v>
+        <v>0.00586462718922931</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.196210088377327</v>
+        <v>1.565385195977228</v>
       </c>
       <c r="G19">
-        <v>0.000760159625514234</v>
+        <v>0.0007477524722094142</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.5174918039616827</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5712254051912424</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5868468153693946</v>
+        <v>0.3801998397527839</v>
       </c>
       <c r="O19">
-        <v>1.691069663301477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.020684135877787</v>
+        <v>4.857902181985196</v>
       </c>
       <c r="C20">
-        <v>0.8094004166184732</v>
+        <v>1.732914816099083</v>
       </c>
       <c r="D20">
-        <v>0.01479509147014468</v>
+        <v>0.005617974191149955</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.277653733639497</v>
+        <v>1.627728843349473</v>
       </c>
       <c r="G20">
-        <v>0.0007570596801451179</v>
+        <v>0.0007449531848199569</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.5336959977881435</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5942037356694101</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5693275722556805</v>
+        <v>0.3665008282060533</v>
       </c>
       <c r="O20">
-        <v>1.751790936138534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.85190480450143</v>
+        <v>5.519997345915158</v>
       </c>
       <c r="C21">
-        <v>0.9126720531236288</v>
+        <v>1.974220085300942</v>
       </c>
       <c r="D21">
-        <v>0.01300808027029809</v>
+        <v>0.004872518342663668</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.560856246973572</v>
+        <v>1.845043237253051</v>
       </c>
       <c r="G21">
-        <v>0.000746724142402398</v>
+        <v>0.0007356270583533807</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.591806074232565</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6731772506457077</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5133156750799941</v>
+        <v>0.322685233741673</v>
       </c>
       <c r="O21">
-        <v>1.963543713798742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.407530972897575</v>
+        <v>5.96019177177152</v>
       </c>
       <c r="C22">
-        <v>0.9814010636684145</v>
+        <v>2.135303803943543</v>
       </c>
       <c r="D22">
-        <v>0.01193702996038759</v>
+        <v>0.004455702647767623</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.754061815846029</v>
+        <v>1.993709968113336</v>
       </c>
       <c r="G22">
-        <v>0.0007400141611598743</v>
+        <v>0.0007295789360327529</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.6328573499310721</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7263017506783171</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4790277621932759</v>
+        <v>0.2958334454019287</v>
       </c>
       <c r="O22">
-        <v>2.108497616199855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.109733953277043</v>
+        <v>5.724494679903501</v>
       </c>
       <c r="C23">
-        <v>0.9445923508868077</v>
+        <v>2.048988096090397</v>
       </c>
       <c r="D23">
-        <v>0.01249906989170668</v>
+        <v>0.004671147243795915</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.650133843447264</v>
+        <v>1.913702263939385</v>
       </c>
       <c r="G23">
-        <v>0.0007435922989969767</v>
+        <v>0.0007328034415028154</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.6106430640711125</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6977968190144708</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4971022942065488</v>
+        <v>0.3099921997720685</v>
       </c>
       <c r="O23">
-        <v>2.030478098316109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.007282558729514</v>
+        <v>4.847191350906996</v>
       </c>
       <c r="C24">
-        <v>0.8077304488921584</v>
+        <v>1.729020761683785</v>
       </c>
       <c r="D24">
-        <v>0.01482578072074325</v>
+        <v>0.005631225518875738</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.273147613878507</v>
+        <v>1.624277589628079</v>
       </c>
       <c r="G24">
-        <v>0.0007572295790681327</v>
+        <v>0.0007451065822396778</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.5327931622784732</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.592935676059966</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5702793849560592</v>
+        <v>0.3672451198212556</v>
       </c>
       <c r="O24">
-        <v>1.748429193450505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.860729934977599</v>
+        <v>3.926361395206357</v>
       </c>
       <c r="C25">
-        <v>0.6641725358891222</v>
+        <v>1.395368155772644</v>
       </c>
       <c r="D25">
-        <v>0.01768660824925128</v>
+        <v>0.006917909972623093</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.895233763609568</v>
+        <v>1.335689812973982</v>
       </c>
       <c r="G25">
-        <v>0.0007722229927868454</v>
+        <v>0.0007586534887982221</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4598996618501445</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4851230625432095</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6579660022818601</v>
+        <v>0.4358163712324554</v>
       </c>
       <c r="O25">
-        <v>1.4674497787299</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.263809941990246</v>
+        <v>1.127795056632408</v>
       </c>
       <c r="C2">
-        <v>1.156662483599973</v>
+        <v>0.3598284857417866</v>
       </c>
       <c r="D2">
-        <v>0.008034557630507422</v>
+        <v>0.01458388519450793</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.138777032627743</v>
+        <v>0.9108577230097268</v>
       </c>
       <c r="G2">
-        <v>0.0007689382853645625</v>
+        <v>0.00241298610574008</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4137269411769964</v>
+        <v>0.5340523969013589</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4913667553915673</v>
+        <v>0.9464710712850817</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.821673341169344</v>
+        <v>1.003958681898894</v>
       </c>
       <c r="C3">
-        <v>0.9979948366271287</v>
+        <v>0.3154094122314461</v>
       </c>
       <c r="D3">
-        <v>0.008877915736574593</v>
+        <v>0.01486669361332105</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.01302201045695</v>
+        <v>0.8883680273926302</v>
       </c>
       <c r="G3">
-        <v>0.0007761333239671512</v>
+        <v>0.002417522126429627</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3862441898307196</v>
+        <v>0.5337657693057949</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5318290673918398</v>
+        <v>0.9616761372101692</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.552794180271405</v>
+        <v>0.9281657647420616</v>
       </c>
       <c r="C4">
-        <v>0.9017464832455744</v>
+        <v>0.2881830475973572</v>
       </c>
       <c r="D4">
-        <v>0.009433133477730671</v>
+        <v>0.01505050133698749</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9390147326947442</v>
+        <v>0.8753927597837361</v>
       </c>
       <c r="G4">
-        <v>0.0007806712515176094</v>
+        <v>0.002420453234484227</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3709949193357858</v>
+        <v>0.5340845520731321</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5579615999338685</v>
+        <v>0.971518454279483</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.443769035452647</v>
+        <v>0.8973402314416035</v>
       </c>
       <c r="C5">
-        <v>0.8627717961509802</v>
+        <v>0.2770993894368701</v>
       </c>
       <c r="D5">
-        <v>0.009668082988517845</v>
+        <v>0.01512794859957367</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9095826797342426</v>
+        <v>0.8703133503878888</v>
       </c>
       <c r="G5">
-        <v>0.0007825519490619978</v>
+        <v>0.002421684513427946</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3651548722378166</v>
+        <v>0.5343381574754744</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5689210258856043</v>
+        <v>0.9756564190411972</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.425695456196934</v>
+        <v>0.8922253287704507</v>
       </c>
       <c r="C6">
-        <v>0.8563136859834515</v>
+        <v>0.2752596236199452</v>
       </c>
       <c r="D6">
-        <v>0.009707601905727614</v>
+        <v>0.01514096199419424</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9047371694683477</v>
+        <v>0.8694824452255574</v>
       </c>
       <c r="G6">
-        <v>0.0007828661719341326</v>
+        <v>0.002421891194199532</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3642067746644955</v>
+        <v>0.5343877186806338</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5707591827033127</v>
+        <v>0.9763511986539157</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.551321756603954</v>
+        <v>0.9277497956284719</v>
       </c>
       <c r="C7">
-        <v>0.9012199162812635</v>
+        <v>0.2880335244338426</v>
       </c>
       <c r="D7">
-        <v>0.00943626777215556</v>
+        <v>0.01505153553173066</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9386149612405177</v>
+        <v>0.8753234163825283</v>
       </c>
       <c r="G7">
-        <v>0.0007806964863425557</v>
+        <v>0.002420469690708626</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.37091468721718</v>
+        <v>0.534087472384698</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5581081640216397</v>
+        <v>0.9715737457806917</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.110755454270247</v>
+        <v>1.085045507595737</v>
       </c>
       <c r="C8">
-        <v>1.101680010567918</v>
+        <v>0.3445026658286565</v>
       </c>
       <c r="D8">
-        <v>0.008317136649822032</v>
+        <v>0.01467928153634901</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.094701065373201</v>
+        <v>0.9029293863305554</v>
       </c>
       <c r="G8">
-        <v>0.0007713949769720714</v>
+        <v>0.002414519902827055</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4038919397160825</v>
+        <v>0.5338504438971157</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5050420903233004</v>
+        <v>0.9516085753968362</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.23374554571518</v>
+        <v>1.39546760151859</v>
       </c>
       <c r="C9">
-        <v>1.50649893007602</v>
+        <v>0.4556426078297022</v>
       </c>
       <c r="D9">
-        <v>0.006455381308290598</v>
+        <v>0.01403043402652315</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.430190210698086</v>
+        <v>0.9637486917278011</v>
       </c>
       <c r="G9">
-        <v>0.000754046508521844</v>
+        <v>0.002404005021816189</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4831637428599365</v>
+        <v>0.537344668651663</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4118823368254354</v>
+        <v>0.9164824562511491</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.082970585897385</v>
+        <v>1.62480816458384</v>
       </c>
       <c r="C10">
-        <v>1.814811515329041</v>
+        <v>0.5375934927687922</v>
       </c>
       <c r="D10">
-        <v>0.00534837361999152</v>
+        <v>0.01360389867316947</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.7007307607022</v>
+        <v>1.01261141232483</v>
       </c>
       <c r="G10">
-        <v>0.0007417492740150466</v>
+        <v>0.002396974564431064</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5529457831699673</v>
+        <v>0.54237277517678</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3511273956236707</v>
+        <v>0.8931397217436334</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.476681938793377</v>
+        <v>1.729435608396159</v>
       </c>
       <c r="C11">
-        <v>1.958397637885582</v>
+        <v>0.5749508005578718</v>
       </c>
       <c r="D11">
-        <v>0.004916904056523563</v>
+        <v>0.01342091067233042</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.830591805030181</v>
+        <v>1.035770637813968</v>
       </c>
       <c r="G11">
-        <v>0.0007362283775033118</v>
+        <v>0.002393925425809822</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5878689297286002</v>
+        <v>0.5452049125037632</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3254233920256802</v>
+        <v>0.8830579758298249</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.627035484921862</v>
+        <v>1.769099300315929</v>
       </c>
       <c r="C12">
-        <v>2.013341130440892</v>
+        <v>0.5891089338602455</v>
       </c>
       <c r="D12">
-        <v>0.004765436088437269</v>
+        <v>0.01335322041944131</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.880892215357576</v>
+        <v>1.044676113681334</v>
       </c>
       <c r="G12">
-        <v>0.0007341460175113048</v>
+        <v>0.002392792101908208</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.601614661717619</v>
+        <v>0.5463565423950953</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3159935151332292</v>
+        <v>0.8793177335469302</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.594594501321581</v>
+        <v>1.760555069244958</v>
       </c>
       <c r="C13">
-        <v>2.001481111379348</v>
+        <v>0.5860591951724246</v>
       </c>
       <c r="D13">
-        <v>0.004797499973520303</v>
+        <v>0.01336772717257695</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.870006533014475</v>
+        <v>1.04275210365094</v>
       </c>
       <c r="G13">
-        <v>0.0007345941611408373</v>
+        <v>0.002393035237223819</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5986299926476164</v>
+        <v>0.5461049845342814</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3180104609279368</v>
+        <v>0.8801198104556711</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.48902505469465</v>
+        <v>1.732697888365408</v>
       </c>
       <c r="C14">
-        <v>1.962905872861654</v>
+        <v>0.5761153601371802</v>
       </c>
       <c r="D14">
-        <v>0.004904194051842836</v>
+        <v>0.01341530953409276</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.834706590783256</v>
+        <v>1.03650056991907</v>
       </c>
       <c r="G14">
-        <v>0.0007360569082641012</v>
+        <v>0.002393831759959707</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5889889611776056</v>
+        <v>0.5452980665916058</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3246413466359428</v>
+        <v>0.8827487090835966</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.424531647286926</v>
+        <v>1.715640247864712</v>
       </c>
       <c r="C15">
-        <v>1.939354635209668</v>
+        <v>0.5700260197150442</v>
       </c>
       <c r="D15">
-        <v>0.004971149742893033</v>
+        <v>0.01344466435885039</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.813235562071313</v>
+        <v>1.03268903086709</v>
       </c>
       <c r="G15">
-        <v>0.0007369538907684147</v>
+        <v>0.00239432242605525</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5831534460384447</v>
+        <v>0.5448141394537629</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3287433151349894</v>
+        <v>0.8843690860926081</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.057405986198432</v>
+        <v>1.617976580627726</v>
       </c>
       <c r="C16">
-        <v>1.805502434675077</v>
+        <v>0.5351537138422486</v>
       </c>
       <c r="D16">
-        <v>0.005378149457436976</v>
+        <v>0.01361608090221722</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.692392955836922</v>
+        <v>1.011116784426648</v>
       </c>
       <c r="G16">
-        <v>0.0007421113646975267</v>
+        <v>0.002397176822176736</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5507327341884078</v>
+        <v>0.5421987212214887</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3528482441737886</v>
+        <v>0.8938094166353032</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.834215164874536</v>
+        <v>1.558140093317888</v>
       </c>
       <c r="C17">
-        <v>1.724303516035718</v>
+        <v>0.5137809386620233</v>
       </c>
       <c r="D17">
-        <v>0.005647331069731365</v>
+        <v>0.01372407888326421</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.620099196891658</v>
+        <v>0.9981226194824302</v>
       </c>
       <c r="G17">
-        <v>0.000745292539140352</v>
+        <v>0.002398965995819072</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5317010034530014</v>
+        <v>0.5407343683415533</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3681483923384761</v>
+        <v>0.8997384832391475</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.706524378089057</v>
+        <v>1.523751864979772</v>
       </c>
       <c r="C18">
-        <v>1.677907681095348</v>
+        <v>0.5014951363717159</v>
       </c>
       <c r="D18">
-        <v>0.005808839155298173</v>
+        <v>0.01378723515194658</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.57914704017422</v>
+        <v>0.9907362807639544</v>
       </c>
       <c r="G18">
-        <v>0.0007471293030383143</v>
+        <v>0.002400009117538304</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5210494143023894</v>
+        <v>0.539943343825577</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3771289427991178</v>
+        <v>0.9031992515717242</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.663402011330675</v>
+        <v>1.512113418929118</v>
       </c>
       <c r="C19">
-        <v>1.662249089921602</v>
+        <v>0.4973366024802885</v>
       </c>
       <c r="D19">
-        <v>0.00586462718922931</v>
+        <v>0.01380879672291968</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.565385195977228</v>
+        <v>0.9882503818812154</v>
       </c>
       <c r="G19">
-        <v>0.0007477524722094142</v>
+        <v>0.002400364714919787</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5174918039616827</v>
+        <v>0.5396842909943729</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3801998397527839</v>
+        <v>0.9043796777869844</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.857902181985196</v>
+        <v>1.564506873853531</v>
       </c>
       <c r="C20">
-        <v>1.732914816099083</v>
+        <v>0.5160553521383804</v>
       </c>
       <c r="D20">
-        <v>0.005617974191149955</v>
+        <v>0.01371247470682846</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.627728843349473</v>
+        <v>0.9994967963314139</v>
       </c>
       <c r="G20">
-        <v>0.0007449531848199569</v>
+        <v>0.002398774083525523</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5336959977881435</v>
+        <v>0.540884942960929</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3665008282060533</v>
+        <v>0.8991020927521483</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.519997345915158</v>
+        <v>1.740879031508371</v>
       </c>
       <c r="C21">
-        <v>1.974220085300942</v>
+        <v>0.5790357823385648</v>
       </c>
       <c r="D21">
-        <v>0.004872518342663668</v>
+        <v>0.01340128980468869</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.845043237253051</v>
+        <v>1.038333104054004</v>
       </c>
       <c r="G21">
-        <v>0.0007356270583533807</v>
+        <v>0.002393597224248301</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.591806074232565</v>
+        <v>0.5455329230153438</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.322685233741673</v>
+        <v>0.8819744323466487</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.96019177177152</v>
+        <v>1.856402529380205</v>
       </c>
       <c r="C22">
-        <v>2.135303803943543</v>
+        <v>0.6202657986888198</v>
       </c>
       <c r="D22">
-        <v>0.004455702647767623</v>
+        <v>0.01320726522790494</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.993709968113336</v>
+        <v>1.06450591728327</v>
       </c>
       <c r="G22">
-        <v>0.0007295789360327529</v>
+        <v>0.002390338057625041</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6328573499310721</v>
+        <v>0.5490324401538942</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2958334454019287</v>
+        <v>0.8712323578136427</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.724494679903501</v>
+        <v>1.794722038060172</v>
       </c>
       <c r="C23">
-        <v>2.048988096090397</v>
+        <v>0.5982540807198689</v>
       </c>
       <c r="D23">
-        <v>0.004671147243795915</v>
+        <v>0.01330995892636189</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.913702263939385</v>
+        <v>1.05046406327682</v>
       </c>
       <c r="G23">
-        <v>0.0007328034415028154</v>
+        <v>0.002392066208745988</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6106430640711125</v>
+        <v>0.5471221567805884</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3099921997720685</v>
+        <v>0.876924167376103</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.847191350906996</v>
+        <v>1.561628413277447</v>
       </c>
       <c r="C24">
-        <v>1.729020761683785</v>
+        <v>0.5150270845917362</v>
       </c>
       <c r="D24">
-        <v>0.005631225518875738</v>
+        <v>0.0137177176331793</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.624277589628079</v>
+        <v>0.9988752688927178</v>
       </c>
       <c r="G24">
-        <v>0.0007451065822396778</v>
+        <v>0.002398860801955853</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5327931622784732</v>
+        <v>0.5408167098381611</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3672451198212556</v>
+        <v>0.8993896427178427</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.926361395206357</v>
+        <v>1.311272081837501</v>
       </c>
       <c r="C25">
-        <v>1.395368155772644</v>
+        <v>0.4255279095652327</v>
       </c>
       <c r="D25">
-        <v>0.006917909972623093</v>
+        <v>0.01419720625733234</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.335689812973982</v>
+        <v>0.9465691796173274</v>
       </c>
       <c r="G25">
-        <v>0.0007586534887982221</v>
+        <v>0.002406726992234598</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4598996618501445</v>
+        <v>0.5359706712129721</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4358163712324554</v>
+        <v>0.9255530020422924</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.127795056632408</v>
+        <v>3.26380994199036</v>
       </c>
       <c r="C2">
-        <v>0.3598284857417866</v>
+        <v>1.156662483599973</v>
       </c>
       <c r="D2">
-        <v>0.01458388519450793</v>
+        <v>0.008034557630505645</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9108577230097268</v>
+        <v>1.138777032627743</v>
       </c>
       <c r="G2">
-        <v>0.00241298610574008</v>
+        <v>0.0007689382853358364</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5340523969013589</v>
+        <v>0.4137269411769751</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9464710712850817</v>
+        <v>0.4913667553914998</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.003958681898894</v>
+        <v>2.821673341169571</v>
       </c>
       <c r="C3">
-        <v>0.3154094122314461</v>
+        <v>0.9979948366270719</v>
       </c>
       <c r="D3">
-        <v>0.01486669361332105</v>
+        <v>0.008877915736512421</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8883680273926302</v>
+        <v>1.013022010456993</v>
       </c>
       <c r="G3">
-        <v>0.002417522126429627</v>
+        <v>0.0007761333240060674</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5337657693057949</v>
+        <v>0.3862441898307267</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9616761372101692</v>
+        <v>0.5318290673918753</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9281657647420616</v>
+        <v>2.552794180271462</v>
       </c>
       <c r="C4">
-        <v>0.2881830475973572</v>
+        <v>0.9017464832459154</v>
       </c>
       <c r="D4">
-        <v>0.01505050133698749</v>
+        <v>0.009433133477672051</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8753927597837361</v>
+        <v>0.9390147326947442</v>
       </c>
       <c r="G4">
-        <v>0.002420453234484227</v>
+        <v>0.0007806712515194688</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5340845520731321</v>
+        <v>0.3709949193357787</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.971518454279483</v>
+        <v>0.5579615999338792</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8973402314416035</v>
+        <v>2.443769035452647</v>
       </c>
       <c r="C5">
-        <v>0.2770993894368701</v>
+        <v>0.8627717961509802</v>
       </c>
       <c r="D5">
-        <v>0.01512794859957367</v>
+        <v>0.009668082988532944</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8703133503878888</v>
+        <v>0.9095826797342426</v>
       </c>
       <c r="G5">
-        <v>0.002421684513427946</v>
+        <v>0.0007825519490648095</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5343381574754744</v>
+        <v>0.3651548722378095</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9756564190411972</v>
+        <v>0.5689210258856896</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8922253287704507</v>
+        <v>2.425695456197104</v>
       </c>
       <c r="C6">
-        <v>0.2752596236199452</v>
+        <v>0.8563136859835936</v>
       </c>
       <c r="D6">
-        <v>0.01514096199419424</v>
+        <v>0.009707601905679653</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8694824452255574</v>
+        <v>0.9047371694683477</v>
       </c>
       <c r="G6">
-        <v>0.002421891194199532</v>
+        <v>0.0007828661719343517</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5343877186806338</v>
+        <v>0.3642067746645026</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9763511986539157</v>
+        <v>0.5707591827032523</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9277497956284719</v>
+        <v>2.551321756603954</v>
       </c>
       <c r="C7">
-        <v>0.2880335244338426</v>
+        <v>0.9012199162812919</v>
       </c>
       <c r="D7">
-        <v>0.01505153553173066</v>
+        <v>0.009436267772092499</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8753234163825283</v>
+        <v>0.9386149612405319</v>
       </c>
       <c r="G7">
-        <v>0.002420469690708626</v>
+        <v>0.0007806964863427137</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.534087472384698</v>
+        <v>0.37091468721718</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9715737457806917</v>
+        <v>0.5581081640215864</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.085045507595737</v>
+        <v>3.110755454270361</v>
       </c>
       <c r="C8">
-        <v>0.3445026658286565</v>
+        <v>1.101680010568145</v>
       </c>
       <c r="D8">
-        <v>0.01467928153634901</v>
+        <v>0.008317136649695911</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9029293863305554</v>
+        <v>1.094701065373172</v>
       </c>
       <c r="G8">
-        <v>0.002414519902827055</v>
+        <v>0.0007713949769329333</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5338504438971157</v>
+        <v>0.4038919397160825</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9516085753968362</v>
+        <v>0.5050420903232755</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.39546760151859</v>
+        <v>4.233745545714953</v>
       </c>
       <c r="C9">
-        <v>0.4556426078297022</v>
+        <v>1.50649893007602</v>
       </c>
       <c r="D9">
-        <v>0.01403043402652315</v>
+        <v>0.006455381308393626</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9637486917278011</v>
+        <v>1.430190210698086</v>
       </c>
       <c r="G9">
-        <v>0.002404005021816189</v>
+        <v>0.000754046508450585</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.537344668651663</v>
+        <v>0.4831637428599365</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9164824562511491</v>
+        <v>0.4118823368254176</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.62480816458384</v>
+        <v>5.082970585897328</v>
       </c>
       <c r="C10">
-        <v>0.5375934927687922</v>
+        <v>1.814811515329154</v>
       </c>
       <c r="D10">
-        <v>0.01360389867316947</v>
+        <v>0.00534837362006968</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.01261141232483</v>
+        <v>1.700730760702228</v>
       </c>
       <c r="G10">
-        <v>0.002396974564431064</v>
+        <v>0.0007417492741030024</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.54237277517678</v>
+        <v>0.552945783169946</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8931397217436334</v>
+        <v>0.3511273956237062</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.729435608396159</v>
+        <v>5.476681938793377</v>
       </c>
       <c r="C11">
-        <v>0.5749508005578718</v>
+        <v>1.958397637885469</v>
       </c>
       <c r="D11">
-        <v>0.01342091067233042</v>
+        <v>0.004916904056210925</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.035770637813968</v>
+        <v>1.83059180503021</v>
       </c>
       <c r="G11">
-        <v>0.002393925425809822</v>
+        <v>0.0007362283774023415</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5452049125037632</v>
+        <v>0.5878689297286002</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8830579758298249</v>
+        <v>0.3254233920256837</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.769099300315929</v>
+        <v>5.627035484921976</v>
       </c>
       <c r="C12">
-        <v>0.5891089338602455</v>
+        <v>2.013341130440836</v>
       </c>
       <c r="D12">
-        <v>0.01335322041944131</v>
+        <v>0.004765436088536745</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.044676113681334</v>
+        <v>1.880892215357548</v>
       </c>
       <c r="G12">
-        <v>0.002392792101908208</v>
+        <v>0.0007341460175358139</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5463565423950953</v>
+        <v>0.601614661717619</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8793177335469302</v>
+        <v>0.3159935151332078</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.760555069244958</v>
+        <v>5.59459450132141</v>
       </c>
       <c r="C13">
-        <v>0.5860591951724246</v>
+        <v>2.001481111379462</v>
       </c>
       <c r="D13">
-        <v>0.01336772717257695</v>
+        <v>0.004797499973426156</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.04275210365094</v>
+        <v>1.870006533014475</v>
       </c>
       <c r="G13">
-        <v>0.002393035237223819</v>
+        <v>0.0007345941611684494</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5461049845342814</v>
+        <v>0.5986299926476164</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8801198104556711</v>
+        <v>0.3180104609279368</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.732697888365408</v>
+        <v>5.489025054694707</v>
       </c>
       <c r="C14">
-        <v>0.5761153601371802</v>
+        <v>1.962905872861938</v>
       </c>
       <c r="D14">
-        <v>0.01341530953409276</v>
+        <v>0.004904194051947641</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.03650056991907</v>
+        <v>1.834706590783256</v>
       </c>
       <c r="G14">
-        <v>0.002393831759959707</v>
+        <v>0.0007360569082447421</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5452980665916058</v>
+        <v>0.5889889611776056</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8827487090835966</v>
+        <v>0.3246413466359357</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.715640247864712</v>
+        <v>5.424531647286869</v>
       </c>
       <c r="C15">
-        <v>0.5700260197150442</v>
+        <v>1.939354635209725</v>
       </c>
       <c r="D15">
-        <v>0.01344466435885039</v>
+        <v>0.004971149743203895</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.03268903086709</v>
+        <v>1.813235562071327</v>
       </c>
       <c r="G15">
-        <v>0.00239432242605525</v>
+        <v>0.0007369538908137428</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5448141394537629</v>
+        <v>0.5831534460384304</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8843690860926081</v>
+        <v>0.3287433151349752</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.617976580627726</v>
+        <v>5.057405986198489</v>
       </c>
       <c r="C16">
-        <v>0.5351537138422486</v>
+        <v>1.80550243467502</v>
       </c>
       <c r="D16">
-        <v>0.01361608090221722</v>
+        <v>0.005378149457326842</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.011116784426648</v>
+        <v>1.692392955836894</v>
       </c>
       <c r="G16">
-        <v>0.002397176822176736</v>
+        <v>0.0007421113647423207</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5421987212214887</v>
+        <v>0.550732734188415</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8938094166353032</v>
+        <v>0.3528482441738596</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.558140093317888</v>
+        <v>4.834215164874536</v>
       </c>
       <c r="C17">
-        <v>0.5137809386620233</v>
+        <v>1.724303516035661</v>
       </c>
       <c r="D17">
-        <v>0.01372407888326421</v>
+        <v>0.005647331069535966</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9981226194824302</v>
+        <v>1.620099196891658</v>
       </c>
       <c r="G17">
-        <v>0.002398965995819072</v>
+        <v>0.0007452925391123829</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5407343683415533</v>
+        <v>0.5317010034530156</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8997384832391475</v>
+        <v>0.3681483923384938</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.523751864979772</v>
+        <v>4.706524378089</v>
       </c>
       <c r="C18">
-        <v>0.5014951363717159</v>
+        <v>1.677907681095519</v>
       </c>
       <c r="D18">
-        <v>0.01378723515194658</v>
+        <v>0.005808839155296397</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9907362807639544</v>
+        <v>1.57914704017422</v>
       </c>
       <c r="G18">
-        <v>0.002400009117538304</v>
+        <v>0.0007471293030378021</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.539943343825577</v>
+        <v>0.5210494143023894</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9031992515717242</v>
+        <v>0.3771289427991178</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.512113418929118</v>
+        <v>4.663402011330788</v>
       </c>
       <c r="C19">
-        <v>0.4973366024802885</v>
+        <v>1.662249089921545</v>
       </c>
       <c r="D19">
-        <v>0.01380879672291968</v>
+        <v>0.005864627189403393</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9882503818812154</v>
+        <v>1.565385195977186</v>
       </c>
       <c r="G19">
-        <v>0.002400364714919787</v>
+        <v>0.0007477524722097047</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5396842909943729</v>
+        <v>0.5174918039616898</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9043796777869844</v>
+        <v>0.380199839752791</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.564506873853531</v>
+        <v>4.857902181985196</v>
       </c>
       <c r="C20">
-        <v>0.5160553521383804</v>
+        <v>1.732914816099196</v>
       </c>
       <c r="D20">
-        <v>0.01371247470682846</v>
+        <v>0.005617974191142849</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9994967963314139</v>
+        <v>1.627728843349487</v>
       </c>
       <c r="G20">
-        <v>0.002398774083525523</v>
+        <v>0.0007449531848182326</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.540884942960929</v>
+        <v>0.5336959977881364</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8991020927521483</v>
+        <v>0.3665008282061066</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.740879031508371</v>
+        <v>5.519997345915158</v>
       </c>
       <c r="C21">
-        <v>0.5790357823385648</v>
+        <v>1.974220085301056</v>
       </c>
       <c r="D21">
-        <v>0.01340128980468869</v>
+        <v>0.004872518342768473</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.038333104054004</v>
+        <v>1.845043237253051</v>
       </c>
       <c r="G21">
-        <v>0.002393597224248301</v>
+        <v>0.0007356270583991943</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5455329230153438</v>
+        <v>0.5918060742325579</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8819744323466487</v>
+        <v>0.322685233741673</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.856402529380205</v>
+        <v>5.960191771771349</v>
       </c>
       <c r="C22">
-        <v>0.6202657986888198</v>
+        <v>2.135303803943657</v>
       </c>
       <c r="D22">
-        <v>0.01320726522790494</v>
+        <v>0.004455702647774729</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.06450591728327</v>
+        <v>1.993709968113322</v>
       </c>
       <c r="G22">
-        <v>0.002390338057625041</v>
+        <v>0.000729578936033576</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5490324401538942</v>
+        <v>0.6328573499310792</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8712323578136427</v>
+        <v>0.2958334454019393</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.794722038060172</v>
+        <v>5.724494679903501</v>
       </c>
       <c r="C23">
-        <v>0.5982540807198689</v>
+        <v>2.048988096090511</v>
       </c>
       <c r="D23">
-        <v>0.01330995892636189</v>
+        <v>0.004671147243877627</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.05046406327682</v>
+        <v>1.913702263939399</v>
       </c>
       <c r="G23">
-        <v>0.002392066208745988</v>
+        <v>0.0007328034414538407</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5471221567805884</v>
+        <v>0.6106430640711267</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.876924167376103</v>
+        <v>0.3099921997720543</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.561628413277447</v>
+        <v>4.847191350907053</v>
       </c>
       <c r="C24">
-        <v>0.5150270845917362</v>
+        <v>1.729020761683842</v>
       </c>
       <c r="D24">
-        <v>0.0137177176331793</v>
+        <v>0.005631225519181271</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9988752688927178</v>
+        <v>1.624277589628079</v>
       </c>
       <c r="G24">
-        <v>0.002398860801955853</v>
+        <v>0.000745106582210351</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5408167098381611</v>
+        <v>0.5327931622784874</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8993896427178427</v>
+        <v>0.367245119821245</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.311272081837501</v>
+        <v>3.9263613952063</v>
       </c>
       <c r="C25">
-        <v>0.4255279095652327</v>
+        <v>1.39536815577253</v>
       </c>
       <c r="D25">
-        <v>0.01419720625733234</v>
+        <v>0.006917909972612435</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9465691796173274</v>
+        <v>1.335689812973982</v>
       </c>
       <c r="G25">
-        <v>0.002406726992234598</v>
+        <v>0.0007586534887965554</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5359706712129721</v>
+        <v>0.4598996618501374</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9255530020422924</v>
+        <v>0.4358163712324377</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.26380994199036</v>
+        <v>2.337201943840682</v>
       </c>
       <c r="C2">
-        <v>1.156662483599973</v>
+        <v>0.4548476104759516</v>
       </c>
       <c r="D2">
-        <v>0.008034557630505645</v>
+        <v>0.05803159375174261</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.138777032627743</v>
+        <v>0.413068544435589</v>
       </c>
       <c r="G2">
-        <v>0.0007689382853358364</v>
+        <v>0.3059787783651799</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.593026820118531E-05</v>
       </c>
       <c r="I2">
-        <v>0.4137269411769751</v>
+        <v>0.001820732735148933</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2467688842058067</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2567854244667629</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4913667553914998</v>
+        <v>0.4637542512418378</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.8418627822543101</v>
+      </c>
+      <c r="Q2">
+        <v>1.115375989725266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.821673341169571</v>
+        <v>2.036712780302935</v>
       </c>
       <c r="C3">
-        <v>0.9979948366270719</v>
+        <v>0.4243175823338277</v>
       </c>
       <c r="D3">
-        <v>0.008877915736512421</v>
+        <v>0.05114842812730558</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.013022010456993</v>
+        <v>0.379858583272231</v>
       </c>
       <c r="G3">
-        <v>0.0007761333240060674</v>
+        <v>0.2815307400392939</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.467804900906927E-06</v>
       </c>
       <c r="I3">
-        <v>0.3862441898307267</v>
+        <v>0.001089270869790937</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.239089414335794</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2547825184714263</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5318290673918753</v>
+        <v>0.4123272594954415</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8352417782105874</v>
+      </c>
+      <c r="Q3">
+        <v>1.04720001720618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.552794180271462</v>
+        <v>1.851399806788208</v>
       </c>
       <c r="C4">
-        <v>0.9017464832459154</v>
+        <v>0.4055819149198641</v>
       </c>
       <c r="D4">
-        <v>0.009433133477672051</v>
+        <v>0.04692750063670559</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9390147326947442</v>
+        <v>0.3598403028716817</v>
       </c>
       <c r="G4">
-        <v>0.0007806712515194688</v>
+        <v>0.2668057920338995</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0001006061252384338</v>
       </c>
       <c r="I4">
-        <v>0.3709949193357787</v>
+        <v>0.0007791549180096169</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2345916114172724</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2537562943375171</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5579615999338792</v>
+        <v>0.3807149523900648</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8318281421138138</v>
+      </c>
+      <c r="Q4">
+        <v>1.006393900310329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.443769035452647</v>
+        <v>1.774681343261591</v>
       </c>
       <c r="C5">
-        <v>0.8627717961509802</v>
+        <v>0.398351256053104</v>
       </c>
       <c r="D5">
-        <v>0.009668082988532944</v>
+        <v>0.04525039748516946</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9095826797342426</v>
+        <v>0.3514638188478614</v>
       </c>
       <c r="G5">
-        <v>0.0007825519490648095</v>
+        <v>0.2605636623793117</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0001713679303867455</v>
       </c>
       <c r="I5">
-        <v>0.3651548722378095</v>
+        <v>0.000747463352089639</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2326526348243974</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2531237067311025</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5689210258856896</v>
+        <v>0.3678062619628548</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8309726143208707</v>
+      </c>
+      <c r="Q5">
+        <v>0.9890285962440686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.425695456197104</v>
+        <v>1.760710443053057</v>
       </c>
       <c r="C6">
-        <v>0.8563136859835936</v>
+        <v>0.3976474939180719</v>
       </c>
       <c r="D6">
-        <v>0.009707601905679653</v>
+        <v>0.04502351078455291</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9047371694683477</v>
+        <v>0.3497028578217822</v>
       </c>
       <c r="G6">
-        <v>0.0007828661719343517</v>
+        <v>0.2591537723595465</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0001856493734557763</v>
       </c>
       <c r="I6">
-        <v>0.3642067746645026</v>
+        <v>0.0008268993614279907</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.232139861949328</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2526996869766762</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5707591827032523</v>
+        <v>0.3656439471018871</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8313025699388916</v>
+      </c>
+      <c r="Q6">
+        <v>0.9849536547712177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.551321756603954</v>
+        <v>1.847024192949021</v>
       </c>
       <c r="C7">
-        <v>0.9012199162812919</v>
+        <v>0.4068475022933171</v>
       </c>
       <c r="D7">
-        <v>0.009436267772092499</v>
+        <v>0.04704609718824315</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9386149612405319</v>
+        <v>0.35870110229191</v>
       </c>
       <c r="G7">
-        <v>0.0007806964863427137</v>
+        <v>0.2656896079376878</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.000102632531225666</v>
       </c>
       <c r="I7">
-        <v>0.37091468721718</v>
+        <v>0.000989838748983729</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2340356825153975</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.252868758879913</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5581081640215864</v>
+        <v>0.3804921035684856</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8330925584597964</v>
+      </c>
+      <c r="Q7">
+        <v>1.002862045085209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.110755454270361</v>
+        <v>2.229291994080143</v>
       </c>
       <c r="C8">
-        <v>1.101680010568145</v>
+        <v>0.4461492584272264</v>
       </c>
       <c r="D8">
-        <v>0.008317136649695911</v>
+        <v>0.05584566399754465</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.094701065373172</v>
+        <v>0.4001750387285909</v>
       </c>
       <c r="G8">
-        <v>0.0007713949769329333</v>
+        <v>0.2961170868932967</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.254982768490343E-05</v>
       </c>
       <c r="I8">
-        <v>0.4038919397160825</v>
+        <v>0.001791122475735207</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2433744029330782</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2548920055002206</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5050420903232755</v>
+        <v>0.4459656678695154</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8411897994950692</v>
+      </c>
+      <c r="Q8">
+        <v>1.087270888474322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.233745545714953</v>
+        <v>2.978673553739611</v>
       </c>
       <c r="C9">
-        <v>1.50649893007602</v>
+        <v>0.5209583845248744</v>
       </c>
       <c r="D9">
-        <v>0.006455381308393626</v>
+        <v>0.07291029569340424</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.430190210698086</v>
+        <v>0.4865888376990384</v>
       </c>
       <c r="G9">
-        <v>0.000754046508450585</v>
+        <v>0.3601529065290805</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001019078521961259</v>
       </c>
       <c r="I9">
-        <v>0.4831637428599365</v>
+        <v>0.004238934274729544</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2644646018993626</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2621404544159738</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4118823368254176</v>
+        <v>0.5742843266333466</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.860088863210791</v>
+      </c>
+      <c r="Q9">
+        <v>1.267808918210108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.082970585897328</v>
+        <v>3.507011458127295</v>
       </c>
       <c r="C10">
-        <v>1.814811515329154</v>
+        <v>0.5842295085723777</v>
       </c>
       <c r="D10">
-        <v>0.00534837362006968</v>
+        <v>0.08631345372079124</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.700730760702228</v>
+        <v>0.5469324340183732</v>
       </c>
       <c r="G10">
-        <v>0.0007417492741030024</v>
+        <v>0.4035284440849836</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002610692133161674</v>
       </c>
       <c r="I10">
-        <v>0.552945783169946</v>
+        <v>0.006934389450155898</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2784357229041206</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2640957437007145</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3511273956237062</v>
+        <v>0.6379800853858484</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.8854435162685377</v>
+      </c>
+      <c r="Q10">
+        <v>1.389437014663429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.476681938793377</v>
+        <v>3.592624588517083</v>
       </c>
       <c r="C11">
-        <v>1.958397637885469</v>
+        <v>0.6844575004128899</v>
       </c>
       <c r="D11">
-        <v>0.004916904056210925</v>
+        <v>0.09923940980980461</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.83059180503021</v>
+        <v>0.5298462814229765</v>
       </c>
       <c r="G11">
-        <v>0.0007362283774023415</v>
+        <v>0.3788210831604601</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02091580505023671</v>
       </c>
       <c r="I11">
-        <v>0.5878689297286002</v>
+        <v>0.008118820647164959</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2624531399731325</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2297896327759439</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3254233920256837</v>
+        <v>0.4290383564282934</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.9676097560838031</v>
+      </c>
+      <c r="Q11">
+        <v>1.303765392238404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.627035484921976</v>
+        <v>3.556924913427849</v>
       </c>
       <c r="C12">
-        <v>2.013341130440836</v>
+        <v>0.7609115953586354</v>
       </c>
       <c r="D12">
-        <v>0.004765436088536745</v>
+        <v>0.1074662269787154</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.880892215357548</v>
+        <v>0.5041060039395546</v>
       </c>
       <c r="G12">
-        <v>0.0007341460175358139</v>
+        <v>0.3508044537347956</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05927682982341764</v>
       </c>
       <c r="I12">
-        <v>0.601614661717619</v>
+        <v>0.008193949780622489</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2468705144853942</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2036607395107417</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3159935151332078</v>
+        <v>0.2772699338740239</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>1.035799929910695</v>
+      </c>
+      <c r="Q12">
+        <v>1.211807333288505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.59459450132141</v>
+        <v>3.420827726718528</v>
       </c>
       <c r="C13">
-        <v>2.001481111379462</v>
+        <v>0.8247462013128199</v>
       </c>
       <c r="D13">
-        <v>0.004797499973426156</v>
+        <v>0.1126904878289992</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.870006533014475</v>
+        <v>0.4684995651503812</v>
       </c>
       <c r="G13">
-        <v>0.0007345941611684494</v>
+        <v>0.3169455041399516</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1146297390866664</v>
       </c>
       <c r="I13">
-        <v>0.5986299926476164</v>
+        <v>0.007716689806001042</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2298088573116388</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1808701723991355</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3180104609279368</v>
+        <v>0.16090210955808</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>1.097960418949327</v>
+      </c>
+      <c r="Q13">
+        <v>1.104286681005618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.489025054694707</v>
+        <v>3.279719487742398</v>
       </c>
       <c r="C14">
-        <v>1.962905872861938</v>
+        <v>0.8646861187199022</v>
       </c>
       <c r="D14">
-        <v>0.004904194051947641</v>
+        <v>0.11503938888454</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.834706590783256</v>
+        <v>0.4390436542945366</v>
       </c>
       <c r="G14">
-        <v>0.0007360569082447421</v>
+        <v>0.2906048352172661</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1636819216130618</v>
       </c>
       <c r="I14">
-        <v>0.5889889611776056</v>
+        <v>0.007224530451436451</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2171680771995455</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.166604486191698</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3246413466359357</v>
+        <v>0.1010366789983692</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>1.139445109926129</v>
+      </c>
+      <c r="Q14">
+        <v>1.021929274500025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.424531647286869</v>
+        <v>3.223115582318314</v>
       </c>
       <c r="C15">
-        <v>1.939354635209725</v>
+        <v>0.8714217985564972</v>
       </c>
       <c r="D15">
-        <v>0.004971149743203895</v>
+        <v>0.1149766982058793</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.813235562071327</v>
+        <v>0.4294714425931119</v>
       </c>
       <c r="G15">
-        <v>0.0007369538908137428</v>
+        <v>0.282595147496707</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1760709247164698</v>
       </c>
       <c r="I15">
-        <v>0.5831534460384304</v>
+        <v>0.007087741362628464</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2136105600410048</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1633996298095219</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3287433151349752</v>
+        <v>0.08918354644113791</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>1.147985317673303</v>
+      </c>
+      <c r="Q15">
+        <v>0.9974701269329955</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.057405986198489</v>
+        <v>3.024904545222796</v>
       </c>
       <c r="C16">
-        <v>1.80550243467502</v>
+        <v>0.8296658746606056</v>
       </c>
       <c r="D16">
-        <v>0.005378149457326842</v>
+        <v>0.1080163434067742</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.692392955836894</v>
+        <v>0.4102601271959685</v>
       </c>
       <c r="G16">
-        <v>0.0007421113647423207</v>
+        <v>0.2704483664506512</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.162758572294166</v>
       </c>
       <c r="I16">
-        <v>0.550732734188415</v>
+        <v>0.006110361616147308</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2107467648719989</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1667419605071068</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3528482441738596</v>
+        <v>0.08877241973614147</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>1.121367924526098</v>
+      </c>
+      <c r="Q16">
+        <v>0.9655466268607285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.834215164874536</v>
+        <v>2.947433847500292</v>
       </c>
       <c r="C17">
-        <v>1.724303516035661</v>
+        <v>0.7763348801699692</v>
       </c>
       <c r="D17">
-        <v>0.005647331069535966</v>
+        <v>0.1014524771973555</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.620099196891658</v>
+        <v>0.4111702401880422</v>
       </c>
       <c r="G17">
-        <v>0.0007452925391123829</v>
+        <v>0.2750404530799386</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.124691211071962</v>
       </c>
       <c r="I17">
-        <v>0.5317010034530156</v>
+        <v>0.00565366091308217</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2152620447220315</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1766949316933655</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3681483923384938</v>
+        <v>0.1163064558377798</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>1.079261109926492</v>
+      </c>
+      <c r="Q17">
+        <v>0.9846259773680117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.706524378089</v>
+        <v>2.967344774435333</v>
       </c>
       <c r="C18">
-        <v>1.677907681095519</v>
+        <v>0.7084910216057949</v>
       </c>
       <c r="D18">
-        <v>0.005808839155296397</v>
+        <v>0.09447937864948841</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.57914704017422</v>
+        <v>0.430261733164734</v>
       </c>
       <c r="G18">
-        <v>0.0007471293030378021</v>
+        <v>0.2955836177115856</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07185445731820295</v>
       </c>
       <c r="I18">
-        <v>0.5210494143023894</v>
+        <v>0.005317535168988918</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2270896528114861</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1949828703303957</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3771289427991178</v>
+        <v>0.1899640680726975</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>1.020087781890993</v>
+      </c>
+      <c r="Q18">
+        <v>1.052880748894012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.663402011330788</v>
+        <v>3.058015562647938</v>
       </c>
       <c r="C19">
-        <v>1.662249089921545</v>
+        <v>0.6419328489977545</v>
       </c>
       <c r="D19">
-        <v>0.005864627189403393</v>
+        <v>0.08817960141924175</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.565385195977186</v>
+        <v>0.4611473457806028</v>
       </c>
       <c r="G19">
-        <v>0.0007477524722097047</v>
+        <v>0.3264716433065615</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02692343753052029</v>
       </c>
       <c r="I19">
-        <v>0.5174918039616898</v>
+        <v>0.00561205353832861</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2433133357005488</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2191091528060305</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.380199839752791</v>
+        <v>0.3241278790521704</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.9584922384861017</v>
+      </c>
+      <c r="Q19">
+        <v>1.152317270692095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.857902181985196</v>
+        <v>3.357112965827127</v>
       </c>
       <c r="C20">
-        <v>1.732914816099196</v>
+        <v>0.5723900287203207</v>
       </c>
       <c r="D20">
-        <v>0.005617974191142849</v>
+        <v>0.08327340530356508</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.627728843349487</v>
+        <v>0.5274843208944162</v>
       </c>
       <c r="G20">
-        <v>0.0007449531848182326</v>
+        <v>0.3885593043758746</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002101653631587208</v>
       </c>
       <c r="I20">
-        <v>0.5336959977881364</v>
+        <v>0.00683780349288643</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2729300065102649</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2606413372444898</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3665008282061066</v>
+        <v>0.6198290881012127</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.8832447181848977</v>
+      </c>
+      <c r="Q20">
+        <v>1.346066365691314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.519997345915158</v>
+        <v>3.789832058744651</v>
       </c>
       <c r="C21">
-        <v>1.974220085301056</v>
+        <v>0.6089757966942955</v>
       </c>
       <c r="D21">
-        <v>0.004872518342768473</v>
+        <v>0.09237860031169731</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.845043237253051</v>
+        <v>0.5831149550273906</v>
       </c>
       <c r="G21">
-        <v>0.0007356270583991943</v>
+        <v>0.4310298239067691</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.003560963691795482</v>
       </c>
       <c r="I21">
-        <v>0.5918060742325579</v>
+        <v>0.009176604075936901</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2883683483471771</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2695210350773962</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.322685233741673</v>
+        <v>0.7162156432081304</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.8920805452023188</v>
+      </c>
+      <c r="Q21">
+        <v>1.468741983980948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.960191771771349</v>
+        <v>4.067986347671649</v>
       </c>
       <c r="C22">
-        <v>2.135303803943657</v>
+        <v>0.6348453093249589</v>
       </c>
       <c r="D22">
-        <v>0.004455702647774729</v>
+        <v>0.09853024683177836</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.993709968113322</v>
+        <v>0.6188344454085879</v>
       </c>
       <c r="G22">
-        <v>0.000729578936033576</v>
+        <v>0.4580350730829821</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.004718069998381202</v>
       </c>
       <c r="I22">
-        <v>0.6328573499310792</v>
+        <v>0.01059902074206409</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2981351792527818</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2746147430935899</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2958334454019393</v>
+        <v>0.7637385868062694</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.9003739853766177</v>
+      </c>
+      <c r="Q22">
+        <v>1.546640219074732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.724494679903501</v>
+        <v>3.923669127406697</v>
       </c>
       <c r="C23">
-        <v>2.048988096090511</v>
+        <v>0.6193143385962969</v>
       </c>
       <c r="D23">
-        <v>0.004671147243877627</v>
+        <v>0.09507160795392622</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.913702263939399</v>
+        <v>0.6009367674936001</v>
       </c>
       <c r="G23">
-        <v>0.0007328034414538407</v>
+        <v>0.4448043021180865</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.004089579174823665</v>
       </c>
       <c r="I23">
-        <v>0.6106430640711267</v>
+        <v>0.009562148334165244</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2935167042485602</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2728896491202164</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3099921997720543</v>
+        <v>0.7384178393406984</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.8941696257731309</v>
+      </c>
+      <c r="Q23">
+        <v>1.508816151047171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.847191350907053</v>
+        <v>3.369654305319045</v>
       </c>
       <c r="C24">
-        <v>1.729020761683842</v>
+        <v>0.5634267249871812</v>
       </c>
       <c r="D24">
-        <v>0.005631225519181271</v>
+        <v>0.08228877992662831</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.624277589628079</v>
+        <v>0.5324235140109863</v>
       </c>
       <c r="G24">
-        <v>0.000745106582210351</v>
+        <v>0.3937343800584188</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002070765586078771</v>
       </c>
       <c r="I24">
-        <v>0.5327931622784874</v>
+        <v>0.00642775283109831</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2756377914719366</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2653185284457997</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.367245119821245</v>
+        <v>0.6426041902284538</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.8748967099486435</v>
+      </c>
+      <c r="Q24">
+        <v>1.362703560935387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.9263613952063</v>
+        <v>2.770416988388945</v>
       </c>
       <c r="C25">
-        <v>1.39536815577253</v>
+        <v>0.5032318385644459</v>
       </c>
       <c r="D25">
-        <v>0.006917909972612435</v>
+        <v>0.06854492151953195</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.335689812973982</v>
+        <v>0.4609570250998587</v>
       </c>
       <c r="G25">
-        <v>0.0007586534887965554</v>
+        <v>0.340648974366843</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0006100265194786125</v>
       </c>
       <c r="I25">
-        <v>0.4598996618501374</v>
+        <v>0.003802085129499311</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2575929046757608</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2584074385697051</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1682,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4358163712324377</v>
+        <v>0.5394863277500548</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8568517925829582</v>
+      </c>
+      <c r="Q25">
+        <v>1.211910064505673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.337201943840682</v>
+        <v>2.280279227812116</v>
       </c>
       <c r="C2">
-        <v>0.4548476104759516</v>
+        <v>0.4621106006571551</v>
       </c>
       <c r="D2">
-        <v>0.05803159375174261</v>
+        <v>0.06061376764106541</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.413068544435589</v>
+        <v>0.3960411259579217</v>
       </c>
       <c r="G2">
-        <v>0.3059787783651799</v>
+        <v>0.2721404701532109</v>
       </c>
       <c r="H2">
-        <v>7.593026820118531E-05</v>
+        <v>8.924176458324773E-05</v>
       </c>
       <c r="I2">
-        <v>0.001820732735148933</v>
+        <v>0.001992229206914331</v>
       </c>
       <c r="J2">
-        <v>0.2467688842058067</v>
+        <v>0.2817268051212736</v>
       </c>
       <c r="K2">
-        <v>0.2567854244667629</v>
+        <v>0.2392218416068843</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1399745283286826</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05258458680957823</v>
       </c>
       <c r="N2">
-        <v>0.4637542512418378</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8418627822543101</v>
+        <v>0.4643805353753692</v>
       </c>
       <c r="Q2">
-        <v>1.115375989725266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8617100288435751</v>
+      </c>
+      <c r="S2">
+        <v>1.061648288161862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.036712780302935</v>
+        <v>1.992750819702962</v>
       </c>
       <c r="C3">
-        <v>0.4243175823338277</v>
+        <v>0.4253497809266804</v>
       </c>
       <c r="D3">
-        <v>0.05114842812730558</v>
+        <v>0.05311365568937276</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.379858583272231</v>
+        <v>0.3660978922729115</v>
       </c>
       <c r="G3">
-        <v>0.2815307400392939</v>
+        <v>0.2506036176704427</v>
       </c>
       <c r="H3">
-        <v>7.467804900906927E-06</v>
+        <v>1.632905957116293E-06</v>
       </c>
       <c r="I3">
-        <v>0.001089270869790937</v>
+        <v>0.001293666109291713</v>
       </c>
       <c r="J3">
-        <v>0.239089414335794</v>
+        <v>0.2741504551926326</v>
       </c>
       <c r="K3">
-        <v>0.2547825184714263</v>
+        <v>0.2391981939230554</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1442243626820776</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04951369539186778</v>
       </c>
       <c r="N3">
-        <v>0.4123272594954415</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8352417782105874</v>
+        <v>0.4135427283209481</v>
       </c>
       <c r="Q3">
-        <v>1.04720001720618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.848041880659828</v>
+      </c>
+      <c r="S3">
+        <v>1.00325463066828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.851399806788208</v>
+        <v>1.815136067711393</v>
       </c>
       <c r="C4">
-        <v>0.4055819149198641</v>
+        <v>0.4029085852814092</v>
       </c>
       <c r="D4">
-        <v>0.04692750063670559</v>
+        <v>0.04852408469139391</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3598403028716817</v>
+        <v>0.347988865984469</v>
       </c>
       <c r="G4">
-        <v>0.2668057920338995</v>
+        <v>0.2376455964002204</v>
       </c>
       <c r="H4">
-        <v>0.0001006061252384338</v>
+        <v>6.590684103513489E-05</v>
       </c>
       <c r="I4">
-        <v>0.0007791549180096169</v>
+        <v>0.0009848256777922337</v>
       </c>
       <c r="J4">
-        <v>0.2345916114172724</v>
+        <v>0.2695656408147329</v>
       </c>
       <c r="K4">
-        <v>0.2537562943375171</v>
+        <v>0.2393178457738436</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1469267799810154</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04814063484956677</v>
       </c>
       <c r="N4">
-        <v>0.3807149523900648</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8318281421138138</v>
+        <v>0.3822898079086485</v>
       </c>
       <c r="Q4">
-        <v>1.006393900310329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8403968917924658</v>
+      </c>
+      <c r="S4">
+        <v>0.9681483808554958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.774681343261591</v>
+        <v>1.741495387625491</v>
       </c>
       <c r="C5">
-        <v>0.398351256053104</v>
+        <v>0.3942284783005761</v>
       </c>
       <c r="D5">
-        <v>0.04525039748516946</v>
+        <v>0.0467003791029299</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3514638188478614</v>
+        <v>0.3403706904646242</v>
       </c>
       <c r="G5">
-        <v>0.2605636623793117</v>
+        <v>0.232127065723553</v>
       </c>
       <c r="H5">
-        <v>0.0001713679303867455</v>
+        <v>0.0001207518670072183</v>
       </c>
       <c r="I5">
-        <v>0.000747463352089639</v>
+        <v>0.0009619850134825469</v>
       </c>
       <c r="J5">
-        <v>0.2326526348243974</v>
+        <v>0.2675508378728821</v>
       </c>
       <c r="K5">
-        <v>0.2531237067311025</v>
+        <v>0.2391473634151389</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1479193842802253</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04764997641152391</v>
       </c>
       <c r="N5">
-        <v>0.3678062619628548</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8309726143208707</v>
+        <v>0.3695274230823458</v>
       </c>
       <c r="Q5">
-        <v>0.9890285962440686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8378643591073072</v>
+      </c>
+      <c r="S5">
+        <v>0.9530488655230016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.760710443053057</v>
+        <v>1.728036784920761</v>
       </c>
       <c r="C6">
-        <v>0.3976474939180719</v>
+        <v>0.3933236316124464</v>
       </c>
       <c r="D6">
-        <v>0.04502351078455291</v>
+        <v>0.04645065410905858</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3497028578217822</v>
+        <v>0.3387388482022615</v>
       </c>
       <c r="G6">
-        <v>0.2591537723595465</v>
+        <v>0.2308482362804369</v>
       </c>
       <c r="H6">
-        <v>0.0001856493734557763</v>
+        <v>0.0001320472962087482</v>
       </c>
       <c r="I6">
-        <v>0.0008268993614279907</v>
+        <v>0.001059771023566469</v>
       </c>
       <c r="J6">
-        <v>0.232139861949328</v>
+        <v>0.2670185804801619</v>
       </c>
       <c r="K6">
-        <v>0.2526996869766762</v>
+        <v>0.2388140833821026</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1479250151705074</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04750351913211759</v>
       </c>
       <c r="N6">
-        <v>0.3656439471018871</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8313025699388916</v>
+        <v>0.3673894852653632</v>
       </c>
       <c r="Q6">
-        <v>0.9849536547712177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8379457817816274</v>
+      </c>
+      <c r="S6">
+        <v>0.9493675269526705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.847024192949021</v>
+        <v>1.809670380540638</v>
       </c>
       <c r="C7">
-        <v>0.4068475022933171</v>
+        <v>0.4037998643122762</v>
       </c>
       <c r="D7">
-        <v>0.04704609718824315</v>
+        <v>0.04874653642943372</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.35870110229191</v>
+        <v>0.3461823300725371</v>
       </c>
       <c r="G7">
-        <v>0.2656896079376878</v>
+        <v>0.2393117674165879</v>
       </c>
       <c r="H7">
-        <v>0.000102632531225666</v>
+        <v>6.788463840767811E-05</v>
       </c>
       <c r="I7">
-        <v>0.000989838748983729</v>
+        <v>0.0012384117089006</v>
       </c>
       <c r="J7">
-        <v>0.2340356825153975</v>
+        <v>0.265002943186829</v>
       </c>
       <c r="K7">
-        <v>0.252868758879913</v>
+        <v>0.2382002820137856</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1463712878831807</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.04785386445191264</v>
       </c>
       <c r="N7">
-        <v>0.3804921035684856</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8330925584597964</v>
+        <v>0.3820495501367134</v>
       </c>
       <c r="Q7">
-        <v>1.002862045085209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8421990717482188</v>
+      </c>
+      <c r="S7">
+        <v>0.9625157140401228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.229291994080143</v>
+        <v>2.173077332427113</v>
       </c>
       <c r="C8">
-        <v>0.4461492584272264</v>
+        <v>0.449845168082021</v>
       </c>
       <c r="D8">
-        <v>0.05584566399754465</v>
+        <v>0.05856267195053988</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4001750387285909</v>
+        <v>0.3820166790394026</v>
       </c>
       <c r="G8">
-        <v>0.2961170868932967</v>
+        <v>0.2725293797837551</v>
       </c>
       <c r="H8">
-        <v>2.254982768490343E-05</v>
+        <v>3.198106809954027E-05</v>
       </c>
       <c r="I8">
-        <v>0.001791122475735207</v>
+        <v>0.002026090831480865</v>
       </c>
       <c r="J8">
-        <v>0.2433744029330782</v>
+        <v>0.2653395272498784</v>
       </c>
       <c r="K8">
-        <v>0.2548920055002206</v>
+        <v>0.2371770425216297</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1404898417086109</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05082107719617746</v>
       </c>
       <c r="N8">
-        <v>0.4459656678695154</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8411897994950692</v>
+        <v>0.4467339465096956</v>
       </c>
       <c r="Q8">
-        <v>1.087270888474322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8603702066748795</v>
+      </c>
+      <c r="S8">
+        <v>1.029796804743654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.978673553739611</v>
+        <v>2.887433488132501</v>
       </c>
       <c r="C9">
-        <v>0.5209583845248744</v>
+        <v>0.5402991848047236</v>
       </c>
       <c r="D9">
-        <v>0.07291029569340424</v>
+        <v>0.07732340163892104</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4865888376990384</v>
+        <v>0.459038293721818</v>
       </c>
       <c r="G9">
-        <v>0.3601529065290805</v>
+        <v>0.3317670323156534</v>
       </c>
       <c r="H9">
-        <v>0.001019078521961259</v>
+        <v>0.0009664646997573634</v>
       </c>
       <c r="I9">
-        <v>0.004238934274729544</v>
+        <v>0.004213564253133129</v>
       </c>
       <c r="J9">
-        <v>0.2644646018993626</v>
+        <v>0.281654480464951</v>
       </c>
       <c r="K9">
-        <v>0.2621404544159738</v>
+        <v>0.2387963947141856</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1308872668444216</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0614515157045723</v>
       </c>
       <c r="N9">
-        <v>0.5742843266333466</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.860088863210791</v>
+        <v>0.5735373530688435</v>
       </c>
       <c r="Q9">
-        <v>1.267808918210108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8978590418556252</v>
+      </c>
+      <c r="S9">
+        <v>1.182000741178285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.507011458127295</v>
+        <v>3.383415387474486</v>
       </c>
       <c r="C10">
-        <v>0.5842295085723777</v>
+        <v>0.6129072607704131</v>
       </c>
       <c r="D10">
-        <v>0.08631345372079124</v>
+        <v>0.09262156784271269</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5469324340183732</v>
+        <v>0.5084717664726384</v>
       </c>
       <c r="G10">
-        <v>0.4035284440849836</v>
+        <v>0.3887804733893176</v>
       </c>
       <c r="H10">
-        <v>0.002610692133161674</v>
+        <v>0.002405164631188672</v>
       </c>
       <c r="I10">
-        <v>0.006934389450155898</v>
+        <v>0.006602592786112638</v>
       </c>
       <c r="J10">
-        <v>0.2784357229041206</v>
+        <v>0.2699708717011191</v>
       </c>
       <c r="K10">
-        <v>0.2640957437007145</v>
+        <v>0.2354410458626042</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1224029701483751</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06963719749527897</v>
       </c>
       <c r="N10">
-        <v>0.6379800853858484</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8854435162685377</v>
+        <v>0.6360266841631272</v>
       </c>
       <c r="Q10">
-        <v>1.389437014663429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9405418538358106</v>
+      </c>
+      <c r="S10">
+        <v>1.27041533331078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.592624588517083</v>
+        <v>3.45744483105193</v>
       </c>
       <c r="C11">
-        <v>0.6844575004128899</v>
+        <v>0.711276862240112</v>
       </c>
       <c r="D11">
-        <v>0.09923940980980461</v>
+        <v>0.1072877151390657</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5298462814229765</v>
+        <v>0.4848744517618684</v>
       </c>
       <c r="G11">
-        <v>0.3788210831604601</v>
+        <v>0.4031627677704392</v>
       </c>
       <c r="H11">
-        <v>0.02091580505023671</v>
+        <v>0.02067759426263294</v>
       </c>
       <c r="I11">
-        <v>0.008118820647164959</v>
+        <v>0.007746561691308607</v>
       </c>
       <c r="J11">
-        <v>0.2624531399731325</v>
+        <v>0.2158290948623574</v>
       </c>
       <c r="K11">
-        <v>0.2297896327759439</v>
+        <v>0.2027436054832492</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1081517416926872</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06047506635104583</v>
       </c>
       <c r="N11">
-        <v>0.4290383564282934</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9676097560838031</v>
+        <v>0.4268862420771597</v>
       </c>
       <c r="Q11">
-        <v>1.303765392238404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.036506968237887</v>
+      </c>
+      <c r="S11">
+        <v>1.167076337052237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.556924913427849</v>
+        <v>3.423312744200359</v>
       </c>
       <c r="C12">
-        <v>0.7609115953586354</v>
+        <v>0.7842320709826538</v>
       </c>
       <c r="D12">
-        <v>0.1074662269787154</v>
+        <v>0.1161952086786613</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5041060039395546</v>
+        <v>0.4586133099461023</v>
       </c>
       <c r="G12">
-        <v>0.3508044537347956</v>
+        <v>0.3937532397441146</v>
       </c>
       <c r="H12">
-        <v>0.05927682982341764</v>
+        <v>0.05904761295710159</v>
       </c>
       <c r="I12">
-        <v>0.008193949780622489</v>
+        <v>0.00779032653013001</v>
       </c>
       <c r="J12">
-        <v>0.2468705144853942</v>
+        <v>0.1890563822734634</v>
       </c>
       <c r="K12">
-        <v>0.2036607395107417</v>
+        <v>0.1799775336381941</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09968378384376031</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05223492285855613</v>
       </c>
       <c r="N12">
-        <v>0.2772699338740239</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.035799929910695</v>
+        <v>0.2752471918962982</v>
       </c>
       <c r="Q12">
-        <v>1.211807333288505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.110244084974795</v>
+      </c>
+      <c r="S12">
+        <v>1.075709792089668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.420827726718528</v>
+        <v>3.301978371603809</v>
       </c>
       <c r="C13">
-        <v>0.8247462013128199</v>
+        <v>0.845362404445126</v>
       </c>
       <c r="D13">
-        <v>0.1126904878289992</v>
+        <v>0.1209202646261787</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4684995651503812</v>
+        <v>0.4285357389500462</v>
       </c>
       <c r="G13">
-        <v>0.3169455041399516</v>
+        <v>0.3567766599838365</v>
       </c>
       <c r="H13">
-        <v>0.1146297390866664</v>
+        <v>0.1144412751435908</v>
       </c>
       <c r="I13">
-        <v>0.007716689806001042</v>
+        <v>0.007377454982001375</v>
       </c>
       <c r="J13">
-        <v>0.2298088573116388</v>
+        <v>0.182110460871364</v>
       </c>
       <c r="K13">
-        <v>0.1808701723991355</v>
+        <v>0.1622535291562155</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0941121970037031</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04416350724046758</v>
       </c>
       <c r="N13">
-        <v>0.16090210955808</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.097960418949327</v>
+        <v>0.1592214692147067</v>
       </c>
       <c r="Q13">
-        <v>1.104286681005618</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.169397316637784</v>
+      </c>
+      <c r="S13">
+        <v>0.9868466984665645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.279719487742398</v>
+        <v>3.17677718548299</v>
       </c>
       <c r="C14">
-        <v>0.8646861187199022</v>
+        <v>0.8839101117191888</v>
       </c>
       <c r="D14">
-        <v>0.11503938888454</v>
+        <v>0.1223641203701504</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4390436542945366</v>
+        <v>0.4053836556589374</v>
       </c>
       <c r="G14">
-        <v>0.2906048352172661</v>
+        <v>0.3197278408594713</v>
       </c>
       <c r="H14">
-        <v>0.1636819216130618</v>
+        <v>0.1635309874716881</v>
       </c>
       <c r="I14">
-        <v>0.007224530451436451</v>
+        <v>0.006983862174489985</v>
       </c>
       <c r="J14">
-        <v>0.2171680771995455</v>
+        <v>0.1846243286228031</v>
       </c>
       <c r="K14">
-        <v>0.166604486191698</v>
+        <v>0.1519710791558353</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09127352779872933</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03872960215534427</v>
       </c>
       <c r="N14">
-        <v>0.1010366789983692</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.139445109926129</v>
+        <v>0.09965591934361839</v>
       </c>
       <c r="Q14">
-        <v>1.021929274500025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.20454727068531</v>
+      </c>
+      <c r="S14">
+        <v>0.9245233411135843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.223115582318314</v>
+        <v>3.126496541641473</v>
       </c>
       <c r="C15">
-        <v>0.8714217985564972</v>
+        <v>0.8906682350931874</v>
       </c>
       <c r="D15">
-        <v>0.1149766982058793</v>
+        <v>0.121847892054987</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4294714425931119</v>
+        <v>0.3984104808411075</v>
       </c>
       <c r="G15">
-        <v>0.282595147496707</v>
+        <v>0.3056536651523771</v>
       </c>
       <c r="H15">
-        <v>0.1760709247164698</v>
+        <v>0.17593569807525</v>
       </c>
       <c r="I15">
-        <v>0.007087741362628464</v>
+        <v>0.006912632555550857</v>
       </c>
       <c r="J15">
-        <v>0.2136105600410048</v>
+        <v>0.188383847424376</v>
       </c>
       <c r="K15">
-        <v>0.1633996298095219</v>
+        <v>0.1499876968118539</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09089975308059284</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03732861886001615</v>
       </c>
       <c r="N15">
-        <v>0.08918354644113791</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.147985317673303</v>
+        <v>0.08791359692316192</v>
       </c>
       <c r="Q15">
-        <v>0.9974701269329955</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.209835999265962</v>
+      </c>
+      <c r="S15">
+        <v>0.9080245417242025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.024904545222796</v>
+        <v>2.949261096278349</v>
       </c>
       <c r="C16">
-        <v>0.8296658746606056</v>
+        <v>0.8513171891260356</v>
       </c>
       <c r="D16">
-        <v>0.1080163434067742</v>
+        <v>0.1129683087775675</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4102601271959685</v>
+        <v>0.3882161700275262</v>
       </c>
       <c r="G16">
-        <v>0.2704483664506512</v>
+        <v>0.2654197094859612</v>
       </c>
       <c r="H16">
-        <v>0.162758572294166</v>
+        <v>0.1626862787600487</v>
       </c>
       <c r="I16">
-        <v>0.006110361616147308</v>
+        <v>0.006130406435875813</v>
       </c>
       <c r="J16">
-        <v>0.2107467648719989</v>
+        <v>0.2179511148708428</v>
       </c>
       <c r="K16">
-        <v>0.1667419605071068</v>
+        <v>0.1556348345053156</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09434911397362988</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03678705049888009</v>
       </c>
       <c r="N16">
-        <v>0.08877241973614147</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.121367924526098</v>
+        <v>0.08790300057529521</v>
       </c>
       <c r="Q16">
-        <v>0.9655466268607285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.169048307751041</v>
+      </c>
+      <c r="S16">
+        <v>0.9024067148303629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.947433847500292</v>
+        <v>2.877724274658306</v>
       </c>
       <c r="C17">
-        <v>0.7763348801699692</v>
+        <v>0.7993020372240665</v>
       </c>
       <c r="D17">
-        <v>0.1014524771973555</v>
+        <v>0.1056728645327638</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4111702401880422</v>
+        <v>0.3918913703421723</v>
       </c>
       <c r="G17">
-        <v>0.2750404530799386</v>
+        <v>0.257518127068451</v>
       </c>
       <c r="H17">
-        <v>0.124691211071962</v>
+        <v>0.1246433841855747</v>
       </c>
       <c r="I17">
-        <v>0.00565366091308217</v>
+        <v>0.00576512954538444</v>
       </c>
       <c r="J17">
-        <v>0.2152620447220315</v>
+        <v>0.2369599908466213</v>
       </c>
       <c r="K17">
-        <v>0.1766949316933655</v>
+        <v>0.165316362413046</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0988069692024176</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03896614720330049</v>
       </c>
       <c r="N17">
-        <v>0.1163064558377798</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.079261109926492</v>
+        <v>0.1156096504224706</v>
       </c>
       <c r="Q17">
-        <v>0.9846259773680117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.121241786659013</v>
+      </c>
+      <c r="S17">
+        <v>0.9289903659878291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.967344774435333</v>
+        <v>2.894096191180438</v>
       </c>
       <c r="C18">
-        <v>0.7084910216057949</v>
+        <v>0.7328842403040028</v>
       </c>
       <c r="D18">
-        <v>0.09447937864948841</v>
+        <v>0.09858323234473687</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.430261733164734</v>
+        <v>0.4101520861348789</v>
       </c>
       <c r="G18">
-        <v>0.2955836177115856</v>
+        <v>0.270707107221277</v>
       </c>
       <c r="H18">
-        <v>0.07185445731820295</v>
+        <v>0.07181030080802486</v>
       </c>
       <c r="I18">
-        <v>0.005317535168988918</v>
+        <v>0.005405535182855026</v>
       </c>
       <c r="J18">
-        <v>0.2270896528114861</v>
+        <v>0.2542310424302343</v>
       </c>
       <c r="K18">
-        <v>0.1949828703303957</v>
+        <v>0.181324835957156</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1053669991964998</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0442154993184829</v>
       </c>
       <c r="N18">
-        <v>0.1899640680726975</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.020087781890993</v>
+        <v>0.1892751416865437</v>
       </c>
       <c r="Q18">
-        <v>1.052880748894012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.060822632459676</v>
+      </c>
+      <c r="S18">
+        <v>0.9936923074126582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.058015562647938</v>
+        <v>2.974887503525395</v>
       </c>
       <c r="C19">
-        <v>0.6419328489977545</v>
+        <v>0.6679228317116781</v>
       </c>
       <c r="D19">
-        <v>0.08817960141924175</v>
+        <v>0.09252239235873816</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4611473457806028</v>
+        <v>0.4378955553559649</v>
       </c>
       <c r="G19">
-        <v>0.3264716433065615</v>
+        <v>0.2964757366877819</v>
       </c>
       <c r="H19">
-        <v>0.02692343753052029</v>
+        <v>0.02686435722779379</v>
       </c>
       <c r="I19">
-        <v>0.00561205353832861</v>
+        <v>0.005700925140376789</v>
       </c>
       <c r="J19">
-        <v>0.2433133357005488</v>
+        <v>0.2706173962590839</v>
       </c>
       <c r="K19">
-        <v>0.2191091528060305</v>
+        <v>0.2016546700704289</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1132292437083002</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05171940366609462</v>
       </c>
       <c r="N19">
-        <v>0.3241278790521704</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9584922384861017</v>
+        <v>0.3232859121279006</v>
       </c>
       <c r="Q19">
-        <v>1.152317270692095</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.000490802071823</v>
+      </c>
+      <c r="S19">
+        <v>1.082335880755437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.357112965827127</v>
+        <v>3.246582918555873</v>
       </c>
       <c r="C20">
-        <v>0.5723900287203207</v>
+        <v>0.6007784214865524</v>
       </c>
       <c r="D20">
-        <v>0.08327340530356508</v>
+        <v>0.08870798517420297</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5274843208944162</v>
+        <v>0.4945517683297425</v>
       </c>
       <c r="G20">
-        <v>0.3885593043758746</v>
+        <v>0.3600591702519722</v>
       </c>
       <c r="H20">
-        <v>0.002101653631587208</v>
+        <v>0.001951067760147751</v>
       </c>
       <c r="I20">
-        <v>0.00683780349288643</v>
+        <v>0.006774675049078027</v>
       </c>
       <c r="J20">
-        <v>0.2729300065102649</v>
+        <v>0.2846448651287545</v>
       </c>
       <c r="K20">
-        <v>0.2606413372444898</v>
+        <v>0.2346231710557625</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1239628534686119</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0667041015567662</v>
       </c>
       <c r="N20">
-        <v>0.6198290881012127</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8832447181848977</v>
+        <v>0.6182620211847052</v>
       </c>
       <c r="Q20">
-        <v>1.346066365691314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9321592478691656</v>
+      </c>
+      <c r="S20">
+        <v>1.244264343632693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.789832058744651</v>
+        <v>3.628551410789441</v>
       </c>
       <c r="C21">
-        <v>0.6089757966942955</v>
+        <v>0.6354805500379257</v>
       </c>
       <c r="D21">
-        <v>0.09237860031169731</v>
+        <v>0.1014264022714642</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5831149550273906</v>
+        <v>0.5273984154554796</v>
       </c>
       <c r="G21">
-        <v>0.4310298239067691</v>
+        <v>0.4691393624042206</v>
       </c>
       <c r="H21">
-        <v>0.003560963691795482</v>
+        <v>0.003202356239267679</v>
       </c>
       <c r="I21">
-        <v>0.009176604075936901</v>
+        <v>0.008699376899302003</v>
       </c>
       <c r="J21">
-        <v>0.2883683483471771</v>
+        <v>0.2170749972798234</v>
       </c>
       <c r="K21">
-        <v>0.2695210350773962</v>
+        <v>0.2330980572872043</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1180983877757313</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07390511189403171</v>
       </c>
       <c r="N21">
-        <v>0.7162156432081304</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8920805452023188</v>
+        <v>0.7133017437311366</v>
       </c>
       <c r="Q21">
-        <v>1.468741983980948</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9652037573524268</v>
+      </c>
+      <c r="S21">
+        <v>1.295908000211398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.067986347671649</v>
+        <v>3.871707424338183</v>
       </c>
       <c r="C22">
-        <v>0.6348453093249589</v>
+        <v>0.6593118323538931</v>
       </c>
       <c r="D22">
-        <v>0.09853024683177836</v>
+        <v>0.1101563708599542</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6188344454085879</v>
+        <v>0.5470978213518336</v>
       </c>
       <c r="G22">
-        <v>0.4580350730829821</v>
+        <v>0.5490221469950569</v>
       </c>
       <c r="H22">
-        <v>0.004718069998381202</v>
+        <v>0.004191787138675185</v>
       </c>
       <c r="I22">
-        <v>0.01059902074206409</v>
+        <v>0.009741359489814805</v>
       </c>
       <c r="J22">
-        <v>0.2981351792527818</v>
+        <v>0.1778024800228764</v>
       </c>
       <c r="K22">
-        <v>0.2746147430935899</v>
+        <v>0.2311121711790243</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1140642264245617</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07849550274140782</v>
       </c>
       <c r="N22">
-        <v>0.7637385868062694</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9003739853766177</v>
+        <v>0.759946100826852</v>
       </c>
       <c r="Q22">
-        <v>1.546640219074732</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9904874777458872</v>
+      </c>
+      <c r="S22">
+        <v>1.324017272256896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.923669127406697</v>
+        <v>3.749261075315246</v>
       </c>
       <c r="C23">
-        <v>0.6193143385962969</v>
+        <v>0.6459746307142495</v>
       </c>
       <c r="D23">
-        <v>0.09507160795392622</v>
+        <v>0.1050069707974473</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6009367674936001</v>
+        <v>0.5395755232921786</v>
       </c>
       <c r="G23">
-        <v>0.4448043021180865</v>
+        <v>0.4987402785579746</v>
       </c>
       <c r="H23">
-        <v>0.004089579174823665</v>
+        <v>0.003660519194576772</v>
       </c>
       <c r="I23">
-        <v>0.009562148334165244</v>
+        <v>0.008857971501729622</v>
       </c>
       <c r="J23">
-        <v>0.2935167042485602</v>
+        <v>0.2053299824970907</v>
       </c>
       <c r="K23">
-        <v>0.2728896491202164</v>
+        <v>0.2337622670222039</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1167275605125653</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07670517172060087</v>
       </c>
       <c r="N23">
-        <v>0.7384178393406984</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8941696257731309</v>
+        <v>0.7351329169183174</v>
       </c>
       <c r="Q23">
-        <v>1.508816151047171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.9734459832205289</v>
+      </c>
+      <c r="S23">
+        <v>1.318391645471678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.369654305319045</v>
+        <v>3.258275260617495</v>
       </c>
       <c r="C24">
-        <v>0.5634267249871812</v>
+        <v>0.5915008916602176</v>
       </c>
       <c r="D24">
-        <v>0.08228877992662831</v>
+        <v>0.08770492153696807</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5324235140109863</v>
+        <v>0.4992060701743313</v>
       </c>
       <c r="G24">
-        <v>0.3937343800584188</v>
+        <v>0.3642363368787187</v>
       </c>
       <c r="H24">
-        <v>0.002070765586078771</v>
+        <v>0.001916167118378387</v>
       </c>
       <c r="I24">
-        <v>0.00642775283109831</v>
+        <v>0.006260706094657564</v>
       </c>
       <c r="J24">
-        <v>0.2756377914719366</v>
+        <v>0.2878206691271856</v>
       </c>
       <c r="K24">
-        <v>0.2653185284457997</v>
+        <v>0.2387201397535712</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.125549788095018</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06820790503743268</v>
       </c>
       <c r="N24">
-        <v>0.6426041902284538</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8748967099486435</v>
+        <v>0.6410126562149401</v>
       </c>
       <c r="Q24">
-        <v>1.362703560935387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9233607338207719</v>
+      </c>
+      <c r="S24">
+        <v>1.259777900888338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.770416988388945</v>
+        <v>2.690631141754011</v>
       </c>
       <c r="C25">
-        <v>0.5032318385644459</v>
+        <v>0.5191591127493211</v>
       </c>
       <c r="D25">
-        <v>0.06854492151953195</v>
+        <v>0.07234973226851338</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4609570250998587</v>
+        <v>0.4370773483101473</v>
       </c>
       <c r="G25">
-        <v>0.340648974366843</v>
+        <v>0.3096357108060772</v>
       </c>
       <c r="H25">
-        <v>0.0006100265194786125</v>
+        <v>0.0005931870006201656</v>
       </c>
       <c r="I25">
-        <v>0.003802085129499311</v>
+        <v>0.003957718798464072</v>
       </c>
       <c r="J25">
-        <v>0.2575929046757608</v>
+        <v>0.2817660574244911</v>
       </c>
       <c r="K25">
-        <v>0.2584074385697051</v>
+        <v>0.2371589690858507</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1329712225788207</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05775341116274291</v>
       </c>
       <c r="N25">
-        <v>0.5394863277500548</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8568517925829582</v>
+        <v>0.5391836713939284</v>
       </c>
       <c r="Q25">
-        <v>1.211910064505673</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.88897463363773</v>
+      </c>
+      <c r="S25">
+        <v>1.137396554039896</v>
       </c>
     </row>
   </sheetData>
